--- a/data/expected_death_inla70_1890.xlsx
+++ b/data/expected_death_inla70_1890.xlsx
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>50.5247781168355</v>
+        <v>50.3632346058744</v>
       </c>
       <c r="D2" t="n">
-        <v>41.3859393543798</v>
+        <v>42.5216661806317</v>
       </c>
       <c r="E2" t="n">
-        <v>58.4397442847345</v>
+        <v>59.7356834527272</v>
       </c>
       <c r="F2" t="n">
         <v>1890</v>
@@ -853,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4240340280039</v>
+        <v>14.5536662149072</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3864565909545</v>
+        <v>11.7831979693877</v>
       </c>
       <c r="E3" t="n">
-        <v>18.070171155929</v>
+        <v>18.4566438178163</v>
       </c>
       <c r="F3" t="n">
         <v>1890</v>
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.4709086604617</v>
+        <v>75.088308930388</v>
       </c>
       <c r="D4" t="n">
-        <v>66.2085375501968</v>
+        <v>64.3854777131698</v>
       </c>
       <c r="E4" t="n">
-        <v>86.1269919860499</v>
+        <v>87.1407187678417</v>
       </c>
       <c r="F4" t="n">
         <v>1890</v>
@@ -929,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>430.851746728477</v>
+        <v>420.916797746736</v>
       </c>
       <c r="D5" t="n">
-        <v>401.096082628072</v>
+        <v>370.638240960153</v>
       </c>
       <c r="E5" t="n">
-        <v>460.749516037749</v>
+        <v>481.68337260403</v>
       </c>
       <c r="F5" t="n">
         <v>1890</v>
@@ -967,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>101.541769615819</v>
+        <v>101.492050099983</v>
       </c>
       <c r="D6" t="n">
-        <v>90.6727872067254</v>
+        <v>87.3558158222984</v>
       </c>
       <c r="E6" t="n">
-        <v>113.27366068124</v>
+        <v>117.561334798768</v>
       </c>
       <c r="F6" t="n">
         <v>1890</v>
@@ -1005,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>203.375192106758</v>
+        <v>213.093589456072</v>
       </c>
       <c r="D7" t="n">
-        <v>185.827073233322</v>
+        <v>184.468892687017</v>
       </c>
       <c r="E7" t="n">
-        <v>222.344546609076</v>
+        <v>247.3817730761</v>
       </c>
       <c r="F7" t="n">
         <v>1890</v>
@@ -1043,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>85.407402017493</v>
+        <v>87.3965518808166</v>
       </c>
       <c r="D8" t="n">
-        <v>75.3583047776916</v>
+        <v>73.6653296037663</v>
       </c>
       <c r="E8" t="n">
-        <v>95.9197464457719</v>
+        <v>102.658667346414</v>
       </c>
       <c r="F8" t="n">
         <v>1890</v>
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>55.3530665919615</v>
+        <v>55.1910800629841</v>
       </c>
       <c r="D9" t="n">
-        <v>47.5622038116454</v>
+        <v>46.124487685675</v>
       </c>
       <c r="E9" t="n">
-        <v>63.874660887474</v>
+        <v>64.8744570399901</v>
       </c>
       <c r="F9" t="n">
         <v>1890</v>
@@ -1119,13 +1119,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>80.3088129320159</v>
+        <v>82.108410299114</v>
       </c>
       <c r="D10" t="n">
-        <v>70.1982555196509</v>
+        <v>70.4623280900331</v>
       </c>
       <c r="E10" t="n">
-        <v>90.0426706756557</v>
+        <v>95.652417460814</v>
       </c>
       <c r="F10" t="n">
         <v>1890</v>
@@ -1157,13 +1157,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6396221384793</v>
+        <v>29.5806958269378</v>
       </c>
       <c r="D11" t="n">
-        <v>24.6967162115863</v>
+        <v>24.0481177595982</v>
       </c>
       <c r="E11" t="n">
-        <v>35.2885863981405</v>
+        <v>35.7581843429477</v>
       </c>
       <c r="F11" t="n">
         <v>1890</v>
@@ -1195,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>36.9969334447978</v>
+        <v>37.0708135386158</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1961871592508</v>
+        <v>30.546666560894</v>
       </c>
       <c r="E12" t="n">
-        <v>43.3841003235202</v>
+        <v>44.227064584932</v>
       </c>
       <c r="F12" t="n">
         <v>1890</v>
@@ -1233,13 +1233,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>63.6566425002833</v>
+        <v>63.2654278966618</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0164696372092</v>
+        <v>53.3199511559931</v>
       </c>
       <c r="E13" t="n">
-        <v>72.5744721007314</v>
+        <v>75.2986654614975</v>
       </c>
       <c r="F13" t="n">
         <v>1890</v>
@@ -1271,13 +1271,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>51.3750556020938</v>
+        <v>52.3468207019265</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7284861917106</v>
+        <v>44.2995220163805</v>
       </c>
       <c r="E14" t="n">
-        <v>59.0884269168779</v>
+        <v>62.7541145645376</v>
       </c>
       <c r="F14" t="n">
         <v>1890</v>
@@ -1309,13 +1309,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>47.1307014184849</v>
+        <v>48.074057385527</v>
       </c>
       <c r="D15" t="n">
-        <v>40.5138380636771</v>
+        <v>40.6418471050802</v>
       </c>
       <c r="E15" t="n">
-        <v>55.2322439226761</v>
+        <v>57.0998794699222</v>
       </c>
       <c r="F15" t="n">
         <v>1890</v>
@@ -1347,13 +1347,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>94.4204861028079</v>
+        <v>95.3675484090861</v>
       </c>
       <c r="D16" t="n">
-        <v>83.5169584316232</v>
+        <v>81.987031217114</v>
       </c>
       <c r="E16" t="n">
-        <v>105.930853410883</v>
+        <v>110.598341263728</v>
       </c>
       <c r="F16" t="n">
         <v>1890</v>
@@ -1385,13 +1385,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>126.04947686381</v>
+        <v>126.493899687711</v>
       </c>
       <c r="D17" t="n">
-        <v>113.836535934872</v>
+        <v>109.884609511082</v>
       </c>
       <c r="E17" t="n">
-        <v>140.945757485876</v>
+        <v>146.262910553487</v>
       </c>
       <c r="F17" t="n">
         <v>1890</v>
@@ -1423,13 +1423,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>51.1529971864612</v>
+        <v>50.1959297889808</v>
       </c>
       <c r="D18" t="n">
-        <v>43.4721409177719</v>
+        <v>42.2325183302457</v>
       </c>
       <c r="E18" t="n">
-        <v>59.4328684738234</v>
+        <v>60.0522167732716</v>
       </c>
       <c r="F18" t="n">
         <v>1890</v>
@@ -1461,13 +1461,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>38.0381840856314</v>
+        <v>37.9435030552802</v>
       </c>
       <c r="D19" t="n">
-        <v>31.9153170558759</v>
+        <v>31.4060590480859</v>
       </c>
       <c r="E19" t="n">
-        <v>45.0179373985762</v>
+        <v>45.4293254874707</v>
       </c>
       <c r="F19" t="n">
         <v>1890</v>
@@ -1499,13 +1499,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>49.8520049322071</v>
+        <v>48.6093625136617</v>
       </c>
       <c r="D20" t="n">
-        <v>42.8941153788619</v>
+        <v>41.5798322296432</v>
       </c>
       <c r="E20" t="n">
-        <v>57.8884299923349</v>
+        <v>57.538590340423</v>
       </c>
       <c r="F20" t="n">
         <v>1890</v>
@@ -1537,13 +1537,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>72.5721534135277</v>
+        <v>73.0357296927091</v>
       </c>
       <c r="D21" t="n">
-        <v>63.381377235981</v>
+        <v>62.1336226350389</v>
       </c>
       <c r="E21" t="n">
-        <v>82.1205810110128</v>
+        <v>84.7998301759733</v>
       </c>
       <c r="F21" t="n">
         <v>1890</v>
@@ -1575,13 +1575,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>58.0298206720406</v>
+        <v>58.8288741016473</v>
       </c>
       <c r="D22" t="n">
-        <v>50.5190598167755</v>
+        <v>49.2465441502687</v>
       </c>
       <c r="E22" t="n">
-        <v>66.3867878073961</v>
+        <v>69.5494245279233</v>
       </c>
       <c r="F22" t="n">
         <v>1890</v>
@@ -1613,13 +1613,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>88.306881157323</v>
+        <v>84.2095274082692</v>
       </c>
       <c r="D23" t="n">
-        <v>78.4069561463334</v>
+        <v>71.7213522777587</v>
       </c>
       <c r="E23" t="n">
-        <v>99.3263816254611</v>
+        <v>98.3975335206922</v>
       </c>
       <c r="F23" t="n">
         <v>1890</v>
@@ -1651,13 +1651,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>91.3858244704152</v>
+        <v>92.1635336408758</v>
       </c>
       <c r="D24" t="n">
-        <v>80.9004100760396</v>
+        <v>79.0148575167148</v>
       </c>
       <c r="E24" t="n">
-        <v>102.181053540401</v>
+        <v>107.035307332188</v>
       </c>
       <c r="F24" t="n">
         <v>1890</v>
@@ -1689,13 +1689,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>86.9705041836344</v>
+        <v>86.4903970478747</v>
       </c>
       <c r="D25" t="n">
-        <v>76.9107152594247</v>
+        <v>73.6604432259912</v>
       </c>
       <c r="E25" t="n">
-        <v>97.8457070369795</v>
+        <v>102.133119438632</v>
       </c>
       <c r="F25" t="n">
         <v>1890</v>
@@ -1727,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>69.7949178781244</v>
+        <v>69.5128158251669</v>
       </c>
       <c r="D26" t="n">
-        <v>61.5955744953158</v>
+        <v>59.0030577785615</v>
       </c>
       <c r="E26" t="n">
-        <v>79.7787880209809</v>
+        <v>82.0844374920885</v>
       </c>
       <c r="F26" t="n">
         <v>1890</v>
@@ -1765,13 +1765,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>70.6811320668646</v>
+        <v>72.4712726721804</v>
       </c>
       <c r="D27" t="n">
-        <v>62.2653737255907</v>
+        <v>62.1967480882677</v>
       </c>
       <c r="E27" t="n">
-        <v>81.1665960227274</v>
+        <v>85.6895813192982</v>
       </c>
       <c r="F27" t="n">
         <v>1890</v>
@@ -1803,13 +1803,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>27.3361095614103</v>
+        <v>27.2636725137214</v>
       </c>
       <c r="D28" t="n">
-        <v>22.5596829773315</v>
+        <v>22.575899564366</v>
       </c>
       <c r="E28" t="n">
-        <v>33.0145243581122</v>
+        <v>32.6703513635979</v>
       </c>
       <c r="F28" t="n">
         <v>1890</v>
@@ -1841,13 +1841,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>34.7271353245272</v>
+        <v>34.6002392771272</v>
       </c>
       <c r="D29" t="n">
-        <v>29.0859858303109</v>
+        <v>28.8682060459029</v>
       </c>
       <c r="E29" t="n">
-        <v>41.39686678947</v>
+        <v>42.0977102463908</v>
       </c>
       <c r="F29" t="n">
         <v>1890</v>
@@ -1879,13 +1879,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>35.8003606574552</v>
+        <v>36.4780181421237</v>
       </c>
       <c r="D30" t="n">
-        <v>30.1437313964519</v>
+        <v>30.2021650282091</v>
       </c>
       <c r="E30" t="n">
-        <v>41.9855600002656</v>
+        <v>44.7385871888953</v>
       </c>
       <c r="F30" t="n">
         <v>1890</v>
@@ -1917,13 +1917,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>156.892247061472</v>
+        <v>154.851629398077</v>
       </c>
       <c r="D31" t="n">
-        <v>141.967828541397</v>
+        <v>135.982406178396</v>
       </c>
       <c r="E31" t="n">
-        <v>172.96193329299</v>
+        <v>178.33206016221</v>
       </c>
       <c r="F31" t="n">
         <v>1890</v>
@@ -1955,13 +1955,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>64.2374286174139</v>
+        <v>64.4552688082202</v>
       </c>
       <c r="D32" t="n">
-        <v>55.4098968504285</v>
+        <v>55.0128468343413</v>
       </c>
       <c r="E32" t="n">
-        <v>73.399484418329</v>
+        <v>76.3830770671352</v>
       </c>
       <c r="F32" t="n">
         <v>1890</v>
@@ -1993,13 +1993,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>23.7852913582352</v>
+        <v>23.8161371497069</v>
       </c>
       <c r="D33" t="n">
-        <v>19.8156009529734</v>
+        <v>19.4874549285479</v>
       </c>
       <c r="E33" t="n">
-        <v>29.2432819142614</v>
+        <v>29.1323678443551</v>
       </c>
       <c r="F33" t="n">
         <v>1890</v>
@@ -2031,13 +2031,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>121.142477911999</v>
+        <v>122.19349430014</v>
       </c>
       <c r="D34" t="n">
-        <v>109.636203943763</v>
+        <v>103.704200810522</v>
       </c>
       <c r="E34" t="n">
-        <v>134.982717614346</v>
+        <v>142.035860581957</v>
       </c>
       <c r="F34" t="n">
         <v>1890</v>
@@ -2069,13 +2069,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>29.440887600037</v>
+        <v>29.2427002861441</v>
       </c>
       <c r="D35" t="n">
-        <v>24.3514751834675</v>
+        <v>23.9238258098219</v>
       </c>
       <c r="E35" t="n">
-        <v>34.8746677301649</v>
+        <v>36.0573219313961</v>
       </c>
       <c r="F35" t="n">
         <v>1890</v>
@@ -2107,13 +2107,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>101.67234383177</v>
+        <v>101.873383327696</v>
       </c>
       <c r="D36" t="n">
-        <v>90.8220017487891</v>
+        <v>87.9598053128457</v>
       </c>
       <c r="E36" t="n">
-        <v>114.75966862665</v>
+        <v>118.760935483938</v>
       </c>
       <c r="F36" t="n">
         <v>1890</v>
@@ -2145,13 +2145,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>31.9330058348515</v>
+        <v>32.4621511272592</v>
       </c>
       <c r="D37" t="n">
-        <v>26.5217466180209</v>
+        <v>26.6968667821392</v>
       </c>
       <c r="E37" t="n">
-        <v>38.2816337375937</v>
+        <v>39.0618904439384</v>
       </c>
       <c r="F37" t="n">
         <v>1890</v>
@@ -2183,13 +2183,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="n">
-        <v>93.0759339279059</v>
+        <v>91.6744697224488</v>
       </c>
       <c r="D38" t="n">
-        <v>83.1118921108268</v>
+        <v>78.0193833043837</v>
       </c>
       <c r="E38" t="n">
-        <v>104.331179396455</v>
+        <v>108.281380657867</v>
       </c>
       <c r="F38" t="n">
         <v>1890</v>
@@ -2221,13 +2221,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="n">
-        <v>176.985259046184</v>
+        <v>177.607277744342</v>
       </c>
       <c r="D39" t="n">
-        <v>160.796473718348</v>
+        <v>154.62679693529</v>
       </c>
       <c r="E39" t="n">
-        <v>193.254351372608</v>
+        <v>205.475190291416</v>
       </c>
       <c r="F39" t="n">
         <v>1890</v>
@@ -2259,13 +2259,13 @@
         <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>47.9791055893664</v>
+        <v>47.9502831990222</v>
       </c>
       <c r="D40" t="n">
-        <v>41.5260566980118</v>
+        <v>40.1167805514379</v>
       </c>
       <c r="E40" t="n">
-        <v>56.3305382995958</v>
+        <v>57.6661256457197</v>
       </c>
       <c r="F40" t="n">
         <v>1890</v>
@@ -2297,13 +2297,13 @@
         <v>42</v>
       </c>
       <c r="C41" t="n">
-        <v>29.5699724783656</v>
+        <v>29.2460741318639</v>
       </c>
       <c r="D41" t="n">
-        <v>24.7097725216261</v>
+        <v>24.4612131964981</v>
       </c>
       <c r="E41" t="n">
-        <v>35.0661634664567</v>
+        <v>35.2895886404274</v>
       </c>
       <c r="F41" t="n">
         <v>1890</v>
@@ -2335,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="n">
-        <v>78.6940119523175</v>
+        <v>77.0986815647016</v>
       </c>
       <c r="D42" t="n">
-        <v>69.4137788823465</v>
+        <v>66.1334528603216</v>
       </c>
       <c r="E42" t="n">
-        <v>90.225342162405</v>
+        <v>91.5138167114118</v>
       </c>
       <c r="F42" t="n">
         <v>1890</v>
@@ -2373,13 +2373,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>35.0765024594602</v>
+        <v>35.1602496366034</v>
       </c>
       <c r="D43" t="n">
-        <v>29.2490914008444</v>
+        <v>29.2898404434625</v>
       </c>
       <c r="E43" t="n">
-        <v>41.608857152913</v>
+        <v>42.6945937292267</v>
       </c>
       <c r="F43" t="n">
         <v>1890</v>
@@ -2411,13 +2411,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="n">
-        <v>59.1246940544508</v>
+        <v>59.6470291047264</v>
       </c>
       <c r="D44" t="n">
-        <v>51.1147804179796</v>
+        <v>50.3502388008466</v>
       </c>
       <c r="E44" t="n">
-        <v>68.3278031318016</v>
+        <v>70.5618163711856</v>
       </c>
       <c r="F44" t="n">
         <v>1890</v>
@@ -2449,13 +2449,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>77.0087644561035</v>
+        <v>77.0445189995283</v>
       </c>
       <c r="D45" t="n">
-        <v>67.6428476434002</v>
+        <v>65.2563626616449</v>
       </c>
       <c r="E45" t="n">
-        <v>87.2205232295469</v>
+        <v>90.4157622065704</v>
       </c>
       <c r="F45" t="n">
         <v>1890</v>
@@ -2487,13 +2487,13 @@
         <v>47</v>
       </c>
       <c r="C46" t="n">
-        <v>60.1595637812909</v>
+        <v>60.6030170122581</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2089183357703</v>
+        <v>51.0988229400916</v>
       </c>
       <c r="E46" t="n">
-        <v>69.4235434173137</v>
+        <v>71.6051656876444</v>
       </c>
       <c r="F46" t="n">
         <v>1890</v>
@@ -2525,13 +2525,13 @@
         <v>48</v>
       </c>
       <c r="C47" t="n">
-        <v>89.2914581553402</v>
+        <v>87.8398624891661</v>
       </c>
       <c r="D47" t="n">
-        <v>77.791920002685</v>
+        <v>75.3676173773309</v>
       </c>
       <c r="E47" t="n">
-        <v>100.823070087645</v>
+        <v>102.173869466617</v>
       </c>
       <c r="F47" t="n">
         <v>1890</v>
@@ -2563,13 +2563,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>56.5501079479429</v>
+        <v>57.009307982242</v>
       </c>
       <c r="D48" t="n">
-        <v>48.9005523584984</v>
+        <v>48.060726968273</v>
       </c>
       <c r="E48" t="n">
-        <v>65.4141027617717</v>
+        <v>67.0853090504542</v>
       </c>
       <c r="F48" t="n">
         <v>1890</v>
@@ -2601,13 +2601,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>76.8129791413302</v>
+        <v>76.561628080561</v>
       </c>
       <c r="D49" t="n">
-        <v>67.358655092193</v>
+        <v>64.6937260081007</v>
       </c>
       <c r="E49" t="n">
-        <v>86.0226930531992</v>
+        <v>89.2864025595037</v>
       </c>
       <c r="F49" t="n">
         <v>1890</v>
@@ -2639,13 +2639,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="n">
-        <v>87.2467938970554</v>
+        <v>87.4219355569251</v>
       </c>
       <c r="D50" t="n">
-        <v>77.6465834725089</v>
+        <v>74.0214457845687</v>
       </c>
       <c r="E50" t="n">
-        <v>98.1661874031686</v>
+        <v>101.489157310099</v>
       </c>
       <c r="F50" t="n">
         <v>1890</v>
@@ -2677,13 +2677,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="n">
-        <v>40.3287872940318</v>
+        <v>41.5587486880899</v>
       </c>
       <c r="D51" t="n">
-        <v>34.158154763531</v>
+        <v>34.2537919739981</v>
       </c>
       <c r="E51" t="n">
-        <v>46.9898075165859</v>
+        <v>50.4335140588609</v>
       </c>
       <c r="F51" t="n">
         <v>1890</v>
@@ -2715,13 +2715,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>19.8420357516642</v>
+        <v>20.3158052468266</v>
       </c>
       <c r="D52" t="n">
-        <v>16.021480978626</v>
+        <v>16.0820088271366</v>
       </c>
       <c r="E52" t="n">
-        <v>24.3939813693717</v>
+        <v>24.7916710555762</v>
       </c>
       <c r="F52" t="n">
         <v>1890</v>
@@ -2753,13 +2753,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>211.392090202474</v>
+        <v>210.709292023786</v>
       </c>
       <c r="D53" t="n">
-        <v>193.935209739272</v>
+        <v>185.122819802539</v>
       </c>
       <c r="E53" t="n">
-        <v>230.00149075176</v>
+        <v>242.043728448016</v>
       </c>
       <c r="F53" t="n">
         <v>1890</v>
@@ -2791,13 +2791,13 @@
         <v>55</v>
       </c>
       <c r="C54" t="n">
-        <v>164.870083340723</v>
+        <v>151.940459738134</v>
       </c>
       <c r="D54" t="n">
-        <v>149.437943832262</v>
+        <v>130.749948066916</v>
       </c>
       <c r="E54" t="n">
-        <v>180.998412913257</v>
+        <v>176.795892464237</v>
       </c>
       <c r="F54" t="n">
         <v>1890</v>
@@ -2829,13 +2829,13 @@
         <v>56</v>
       </c>
       <c r="C55" t="n">
-        <v>264.417095845874</v>
+        <v>258.129859692797</v>
       </c>
       <c r="D55" t="n">
-        <v>243.72548792619</v>
+        <v>227.017560347365</v>
       </c>
       <c r="E55" t="n">
-        <v>286.936072055598</v>
+        <v>297.546762794857</v>
       </c>
       <c r="F55" t="n">
         <v>1890</v>
@@ -2867,13 +2867,13 @@
         <v>57</v>
       </c>
       <c r="C56" t="n">
-        <v>310.696003058051</v>
+        <v>306.506536235454</v>
       </c>
       <c r="D56" t="n">
-        <v>288.901596935537</v>
+        <v>268.358534101635</v>
       </c>
       <c r="E56" t="n">
-        <v>335.172163662434</v>
+        <v>349.291682570779</v>
       </c>
       <c r="F56" t="n">
         <v>1890</v>
@@ -2905,13 +2905,13 @@
         <v>58</v>
       </c>
       <c r="C57" t="n">
-        <v>119.237676167467</v>
+        <v>119.862130780011</v>
       </c>
       <c r="D57" t="n">
-        <v>106.123677805058</v>
+        <v>103.372246778991</v>
       </c>
       <c r="E57" t="n">
-        <v>132.562493023297</v>
+        <v>138.721231642277</v>
       </c>
       <c r="F57" t="n">
         <v>1890</v>
@@ -2943,13 +2943,13 @@
         <v>59</v>
       </c>
       <c r="C58" t="n">
-        <v>94.6955216502497</v>
+        <v>95.2580760711329</v>
       </c>
       <c r="D58" t="n">
-        <v>84.240861844294</v>
+        <v>81.72735680747</v>
       </c>
       <c r="E58" t="n">
-        <v>106.499125789055</v>
+        <v>110.966359764294</v>
       </c>
       <c r="F58" t="n">
         <v>1890</v>
@@ -2981,13 +2981,13 @@
         <v>60</v>
       </c>
       <c r="C59" t="n">
-        <v>34.2375025002753</v>
+        <v>35.3830941512251</v>
       </c>
       <c r="D59" t="n">
-        <v>28.9115268640932</v>
+        <v>29.1144031228795</v>
       </c>
       <c r="E59" t="n">
-        <v>40.5985113799161</v>
+        <v>42.8357740572598</v>
       </c>
       <c r="F59" t="n">
         <v>1890</v>
@@ -3019,13 +3019,13 @@
         <v>61</v>
       </c>
       <c r="C60" t="n">
-        <v>57.4613804119779</v>
+        <v>57.6179986741491</v>
       </c>
       <c r="D60" t="n">
-        <v>49.3857817677415</v>
+        <v>49.424150101066</v>
       </c>
       <c r="E60" t="n">
-        <v>65.8458037524641</v>
+        <v>68.5082070485746</v>
       </c>
       <c r="F60" t="n">
         <v>1890</v>
@@ -3057,13 +3057,13 @@
         <v>62</v>
       </c>
       <c r="C61" t="n">
-        <v>155.426831051039</v>
+        <v>156.160460669264</v>
       </c>
       <c r="D61" t="n">
-        <v>139.758740053386</v>
+        <v>136.353097844451</v>
       </c>
       <c r="E61" t="n">
-        <v>170.545244115095</v>
+        <v>179.487786533206</v>
       </c>
       <c r="F61" t="n">
         <v>1890</v>
@@ -3095,13 +3095,13 @@
         <v>63</v>
       </c>
       <c r="C62" t="n">
-        <v>29.9395727838529</v>
+        <v>29.9724577396209</v>
       </c>
       <c r="D62" t="n">
-        <v>24.9157339144043</v>
+        <v>24.4379234178297</v>
       </c>
       <c r="E62" t="n">
-        <v>35.7365212299867</v>
+        <v>36.4762270815152</v>
       </c>
       <c r="F62" t="n">
         <v>1890</v>
@@ -3133,13 +3133,13 @@
         <v>64</v>
       </c>
       <c r="C63" t="n">
-        <v>67.5841634620445</v>
+        <v>66.8645503734105</v>
       </c>
       <c r="D63" t="n">
-        <v>58.9880618431383</v>
+        <v>56.8454110445707</v>
       </c>
       <c r="E63" t="n">
-        <v>77.6934104922101</v>
+        <v>78.7922860596661</v>
       </c>
       <c r="F63" t="n">
         <v>1890</v>
@@ -3171,13 +3171,13 @@
         <v>65</v>
       </c>
       <c r="C64" t="n">
-        <v>49.7461238288007</v>
+        <v>49.824661112524</v>
       </c>
       <c r="D64" t="n">
-        <v>42.0360786027263</v>
+        <v>42.1442933581132</v>
       </c>
       <c r="E64" t="n">
-        <v>57.7182823339145</v>
+        <v>59.5476100977609</v>
       </c>
       <c r="F64" t="n">
         <v>1890</v>
@@ -3209,13 +3209,13 @@
         <v>66</v>
       </c>
       <c r="C65" t="n">
-        <v>58.5091199400284</v>
+        <v>58.289341640737</v>
       </c>
       <c r="D65" t="n">
-        <v>49.9723934449813</v>
+        <v>49.5713022584208</v>
       </c>
       <c r="E65" t="n">
-        <v>66.9004324878689</v>
+        <v>69.5413143652764</v>
       </c>
       <c r="F65" t="n">
         <v>1890</v>
@@ -3247,13 +3247,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="n">
-        <v>103.724883100374</v>
+        <v>101.851970876083</v>
       </c>
       <c r="D66" t="n">
-        <v>93.2659393124578</v>
+        <v>87.706100202087</v>
       </c>
       <c r="E66" t="n">
-        <v>116.935696410409</v>
+        <v>117.982120446586</v>
       </c>
       <c r="F66" t="n">
         <v>1890</v>
@@ -3285,13 +3285,13 @@
         <v>68</v>
       </c>
       <c r="C67" t="n">
-        <v>72.2832362684967</v>
+        <v>74.0020369185162</v>
       </c>
       <c r="D67" t="n">
-        <v>63.0237984981006</v>
+        <v>62.3373521547648</v>
       </c>
       <c r="E67" t="n">
-        <v>82.2434369894142</v>
+        <v>86.9309206929569</v>
       </c>
       <c r="F67" t="n">
         <v>1890</v>
@@ -3323,13 +3323,13 @@
         <v>69</v>
       </c>
       <c r="C68" t="n">
-        <v>88.9564635950408</v>
+        <v>89.5013378546476</v>
       </c>
       <c r="D68" t="n">
-        <v>78.7174226990275</v>
+        <v>77.658878171248</v>
       </c>
       <c r="E68" t="n">
-        <v>99.9539213264339</v>
+        <v>103.187148283929</v>
       </c>
       <c r="F68" t="n">
         <v>1890</v>
@@ -3361,13 +3361,13 @@
         <v>70</v>
       </c>
       <c r="C69" t="n">
-        <v>43.8581726070531</v>
+        <v>43.6130475993322</v>
       </c>
       <c r="D69" t="n">
-        <v>37.3710626839773</v>
+        <v>36.2481932177879</v>
       </c>
       <c r="E69" t="n">
-        <v>51.400469784729</v>
+        <v>52.0667715637288</v>
       </c>
       <c r="F69" t="n">
         <v>1890</v>
@@ -3399,13 +3399,13 @@
         <v>71</v>
       </c>
       <c r="C70" t="n">
-        <v>27.6565683823424</v>
+        <v>28.4831286318512</v>
       </c>
       <c r="D70" t="n">
-        <v>22.5505529643145</v>
+        <v>23.4678781204506</v>
       </c>
       <c r="E70" t="n">
-        <v>32.7496352839437</v>
+        <v>34.5345104423762</v>
       </c>
       <c r="F70" t="n">
         <v>1890</v>
@@ -3437,13 +3437,13 @@
         <v>72</v>
       </c>
       <c r="C71" t="n">
-        <v>72.2324945706228</v>
+        <v>72.253884246054</v>
       </c>
       <c r="D71" t="n">
-        <v>62.6481819547204</v>
+        <v>62.181079644876</v>
       </c>
       <c r="E71" t="n">
-        <v>81.9467906521299</v>
+        <v>84.5243724364382</v>
       </c>
       <c r="F71" t="n">
         <v>1890</v>
@@ -3475,13 +3475,13 @@
         <v>73</v>
       </c>
       <c r="C72" t="n">
-        <v>184.265693185147</v>
+        <v>168.198044388784</v>
       </c>
       <c r="D72" t="n">
-        <v>167.943067054709</v>
+        <v>146.362130908024</v>
       </c>
       <c r="E72" t="n">
-        <v>200.948612068358</v>
+        <v>192.57611006293</v>
       </c>
       <c r="F72" t="n">
         <v>1890</v>
@@ -3513,13 +3513,13 @@
         <v>74</v>
       </c>
       <c r="C73" t="n">
-        <v>26.6499848038837</v>
+        <v>27.2514588202087</v>
       </c>
       <c r="D73" t="n">
-        <v>22.0273141494687</v>
+        <v>21.8965468456107</v>
       </c>
       <c r="E73" t="n">
-        <v>32.2189769351065</v>
+        <v>33.4539816616207</v>
       </c>
       <c r="F73" t="n">
         <v>1890</v>
@@ -3551,13 +3551,13 @@
         <v>75</v>
       </c>
       <c r="C74" t="n">
-        <v>11.5570610408772</v>
+        <v>11.268346432407</v>
       </c>
       <c r="D74" t="n">
-        <v>9.12467128430234</v>
+        <v>8.88679471330824</v>
       </c>
       <c r="E74" t="n">
-        <v>14.7351749511638</v>
+        <v>14.0418775482521</v>
       </c>
       <c r="F74" t="n">
         <v>1890</v>
@@ -3589,13 +3589,13 @@
         <v>76</v>
       </c>
       <c r="C75" t="n">
-        <v>117.817317373257</v>
+        <v>118.153699550217</v>
       </c>
       <c r="D75" t="n">
-        <v>105.136195631425</v>
+        <v>101.718968650977</v>
       </c>
       <c r="E75" t="n">
-        <v>131.23030439717</v>
+        <v>137.220470061096</v>
       </c>
       <c r="F75" t="n">
         <v>1890</v>
@@ -3627,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="C76" t="n">
-        <v>40.5192045908112</v>
+        <v>40.1356875686652</v>
       </c>
       <c r="D76" t="n">
-        <v>33.9312538158899</v>
+        <v>33.6741036739116</v>
       </c>
       <c r="E76" t="n">
-        <v>47.149644236702</v>
+        <v>48.3843248418065</v>
       </c>
       <c r="F76" t="n">
         <v>1890</v>
@@ -3665,13 +3665,13 @@
         <v>78</v>
       </c>
       <c r="C77" t="n">
-        <v>89.7465831510324</v>
+        <v>87.9523285905067</v>
       </c>
       <c r="D77" t="n">
-        <v>80.0166653799962</v>
+        <v>74.7713013382231</v>
       </c>
       <c r="E77" t="n">
-        <v>100.446278745219</v>
+        <v>103.409678030099</v>
       </c>
       <c r="F77" t="n">
         <v>1890</v>
@@ -3703,13 +3703,13 @@
         <v>79</v>
       </c>
       <c r="C78" t="n">
-        <v>77.0955325026934</v>
+        <v>78.0563744518567</v>
       </c>
       <c r="D78" t="n">
-        <v>68.1058526420396</v>
+        <v>66.3498904302631</v>
       </c>
       <c r="E78" t="n">
-        <v>87.1113827971461</v>
+        <v>91.6569170997042</v>
       </c>
       <c r="F78" t="n">
         <v>1890</v>
@@ -3741,13 +3741,13 @@
         <v>80</v>
       </c>
       <c r="C79" t="n">
-        <v>166.616903138108</v>
+        <v>162.162628083459</v>
       </c>
       <c r="D79" t="n">
-        <v>151.05978264758</v>
+        <v>141.350091727542</v>
       </c>
       <c r="E79" t="n">
-        <v>182.525303993688</v>
+        <v>187.934352279744</v>
       </c>
       <c r="F79" t="n">
         <v>1890</v>
@@ -3779,13 +3779,13 @@
         <v>81</v>
       </c>
       <c r="C80" t="n">
-        <v>74.9517517794248</v>
+        <v>75.8671271292055</v>
       </c>
       <c r="D80" t="n">
-        <v>65.6783227745509</v>
+        <v>64.8197868352633</v>
       </c>
       <c r="E80" t="n">
-        <v>85.2252885111315</v>
+        <v>88.3473858212259</v>
       </c>
       <c r="F80" t="n">
         <v>1890</v>
@@ -3817,13 +3817,13 @@
         <v>82</v>
       </c>
       <c r="C81" t="n">
-        <v>325.296869191545</v>
+        <v>332.167941443564</v>
       </c>
       <c r="D81" t="n">
-        <v>302.184399669822</v>
+        <v>292.431377001586</v>
       </c>
       <c r="E81" t="n">
-        <v>352.335182190853</v>
+        <v>377.088189576882</v>
       </c>
       <c r="F81" t="n">
         <v>1890</v>
@@ -3855,13 +3855,13 @@
         <v>83</v>
       </c>
       <c r="C82" t="n">
-        <v>101.495053406057</v>
+        <v>102.774380986744</v>
       </c>
       <c r="D82" t="n">
-        <v>90.20328157309</v>
+        <v>88.5528881690001</v>
       </c>
       <c r="E82" t="n">
-        <v>114.07785130159</v>
+        <v>119.128468611311</v>
       </c>
       <c r="F82" t="n">
         <v>1890</v>
@@ -3893,13 +3893,13 @@
         <v>84</v>
       </c>
       <c r="C83" t="n">
-        <v>76.4250828807074</v>
+        <v>76.1434766643152</v>
       </c>
       <c r="D83" t="n">
-        <v>66.720653190752</v>
+        <v>65.0517027618637</v>
       </c>
       <c r="E83" t="n">
-        <v>86.9044625686278</v>
+        <v>89.4516921543747</v>
       </c>
       <c r="F83" t="n">
         <v>1890</v>
@@ -3931,13 +3931,13 @@
         <v>85</v>
       </c>
       <c r="C84" t="n">
-        <v>129.625678958446</v>
+        <v>119.312297919724</v>
       </c>
       <c r="D84" t="n">
-        <v>116.736716409951</v>
+        <v>103.605711809942</v>
       </c>
       <c r="E84" t="n">
-        <v>143.95625448904</v>
+        <v>138.307945754332</v>
       </c>
       <c r="F84" t="n">
         <v>1890</v>
@@ -3969,13 +3969,13 @@
         <v>86</v>
       </c>
       <c r="C85" t="n">
-        <v>181.633619449263</v>
+        <v>179.986866712276</v>
       </c>
       <c r="D85" t="n">
-        <v>164.192310805282</v>
+        <v>157.292965482584</v>
       </c>
       <c r="E85" t="n">
-        <v>198.024722033278</v>
+        <v>208.172972398776</v>
       </c>
       <c r="F85" t="n">
         <v>1890</v>
@@ -4007,13 +4007,13 @@
         <v>87</v>
       </c>
       <c r="C86" t="n">
-        <v>30.4465156886867</v>
+        <v>30.6095039623863</v>
       </c>
       <c r="D86" t="n">
-        <v>25.397304267006</v>
+        <v>24.917299832989</v>
       </c>
       <c r="E86" t="n">
-        <v>35.9903332018951</v>
+        <v>36.6303303224968</v>
       </c>
       <c r="F86" t="n">
         <v>1890</v>
@@ -4045,13 +4045,13 @@
         <v>88</v>
       </c>
       <c r="C87" t="n">
-        <v>58.966412305694</v>
+        <v>66.4072019234187</v>
       </c>
       <c r="D87" t="n">
-        <v>51.2464206519988</v>
+        <v>55.2360212524885</v>
       </c>
       <c r="E87" t="n">
-        <v>67.3657274400285</v>
+        <v>79.6492157798982</v>
       </c>
       <c r="F87" t="n">
         <v>1890</v>
@@ -4083,13 +4083,13 @@
         <v>89</v>
       </c>
       <c r="C88" t="n">
-        <v>97.8958252591873</v>
+        <v>97.5373099833355</v>
       </c>
       <c r="D88" t="n">
-        <v>87.1091275625413</v>
+        <v>84.0508012432142</v>
       </c>
       <c r="E88" t="n">
-        <v>108.696181879346</v>
+        <v>113.502662729104</v>
       </c>
       <c r="F88" t="n">
         <v>1890</v>
@@ -4121,13 +4121,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="n">
-        <v>56.3200358137153</v>
+        <v>55.026319031767</v>
       </c>
       <c r="D89" t="n">
-        <v>48.3151721737394</v>
+        <v>46.6403922782883</v>
       </c>
       <c r="E89" t="n">
-        <v>64.8212300088574</v>
+        <v>65.2490277424781</v>
       </c>
       <c r="F89" t="n">
         <v>1890</v>
@@ -4159,13 +4159,13 @@
         <v>91</v>
       </c>
       <c r="C90" t="n">
-        <v>203.043323642415</v>
+        <v>204.988534898157</v>
       </c>
       <c r="D90" t="n">
-        <v>186.375495584992</v>
+        <v>179.38277294387</v>
       </c>
       <c r="E90" t="n">
-        <v>221.959985302731</v>
+        <v>237.79272905819</v>
       </c>
       <c r="F90" t="n">
         <v>1890</v>
@@ -4197,13 +4197,13 @@
         <v>92</v>
       </c>
       <c r="C91" t="n">
-        <v>176.260526181294</v>
+        <v>173.953859913434</v>
       </c>
       <c r="D91" t="n">
-        <v>160.002563111064</v>
+        <v>151.320286562585</v>
       </c>
       <c r="E91" t="n">
-        <v>193.701343751521</v>
+        <v>198.27364888617</v>
       </c>
       <c r="F91" t="n">
         <v>1890</v>
@@ -4235,13 +4235,13 @@
         <v>93</v>
       </c>
       <c r="C92" t="n">
-        <v>45.1180611390837</v>
+        <v>44.5540326093535</v>
       </c>
       <c r="D92" t="n">
-        <v>38.0984115188317</v>
+        <v>37.8777821562532</v>
       </c>
       <c r="E92" t="n">
-        <v>52.7224676839607</v>
+        <v>54.0136689657526</v>
       </c>
       <c r="F92" t="n">
         <v>1890</v>
@@ -4273,13 +4273,13 @@
         <v>94</v>
       </c>
       <c r="C93" t="n">
-        <v>5.5588211273417</v>
+        <v>5.52344557329522</v>
       </c>
       <c r="D93" t="n">
-        <v>4.11617575051391</v>
+        <v>4.17824760815545</v>
       </c>
       <c r="E93" t="n">
-        <v>7.38959423234297</v>
+        <v>7.08564654003744</v>
       </c>
       <c r="F93" t="n">
         <v>1890</v>
@@ -4311,13 +4311,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="n">
-        <v>82.5883807171706</v>
+        <v>81.8953434816433</v>
       </c>
       <c r="D94" t="n">
-        <v>72.4562528123402</v>
+        <v>69.7034036689465</v>
       </c>
       <c r="E94" t="n">
-        <v>93.5387614586826</v>
+        <v>95.4403016158655</v>
       </c>
       <c r="F94" t="n">
         <v>1890</v>
@@ -4349,13 +4349,13 @@
         <v>96</v>
       </c>
       <c r="C95" t="n">
-        <v>167.35783152666</v>
+        <v>164.645509414784</v>
       </c>
       <c r="D95" t="n">
-        <v>151.876074327195</v>
+        <v>143.173073805616</v>
       </c>
       <c r="E95" t="n">
-        <v>183.643290635403</v>
+        <v>189.914093992076</v>
       </c>
       <c r="F95" t="n">
         <v>1890</v>
@@ -4387,13 +4387,13 @@
         <v>97</v>
       </c>
       <c r="C96" t="n">
-        <v>123.491507827121</v>
+        <v>121.532307860184</v>
       </c>
       <c r="D96" t="n">
-        <v>110.970668210016</v>
+        <v>104.598071350549</v>
       </c>
       <c r="E96" t="n">
-        <v>137.918569986768</v>
+        <v>138.590691098843</v>
       </c>
       <c r="F96" t="n">
         <v>1890</v>
@@ -4425,13 +4425,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="n">
-        <v>49.1015887535142</v>
+        <v>49.3894589969939</v>
       </c>
       <c r="D97" t="n">
-        <v>41.8146269756944</v>
+        <v>41.0916512231021</v>
       </c>
       <c r="E97" t="n">
-        <v>57.2706067425168</v>
+        <v>58.4999203135479</v>
       </c>
       <c r="F97" t="n">
         <v>1890</v>
@@ -4463,13 +4463,13 @@
         <v>99</v>
       </c>
       <c r="C98" t="n">
-        <v>86.8974193612957</v>
+        <v>84.4866357080669</v>
       </c>
       <c r="D98" t="n">
-        <v>76.8870323692967</v>
+        <v>72.864151654483</v>
       </c>
       <c r="E98" t="n">
-        <v>97.3046701121543</v>
+        <v>98.4044092199974</v>
       </c>
       <c r="F98" t="n">
         <v>1890</v>
@@ -4501,13 +4501,13 @@
         <v>100</v>
       </c>
       <c r="C99" t="n">
-        <v>52.5424319844709</v>
+        <v>52.8677060765413</v>
       </c>
       <c r="D99" t="n">
-        <v>45.1705021674762</v>
+        <v>44.4173721213573</v>
       </c>
       <c r="E99" t="n">
-        <v>61.0324751067598</v>
+        <v>63.025288696202</v>
       </c>
       <c r="F99" t="n">
         <v>1890</v>
@@ -4539,13 +4539,13 @@
         <v>101</v>
       </c>
       <c r="C100" t="n">
-        <v>58.4362849723056</v>
+        <v>58.4191664778471</v>
       </c>
       <c r="D100" t="n">
-        <v>50.1129285903159</v>
+        <v>49.565525489528</v>
       </c>
       <c r="E100" t="n">
-        <v>67.1969012995121</v>
+        <v>69.3124115217905</v>
       </c>
       <c r="F100" t="n">
         <v>1890</v>
@@ -4577,13 +4577,13 @@
         <v>102</v>
       </c>
       <c r="C101" t="n">
-        <v>81.8279777843896</v>
+        <v>80.3474667413914</v>
       </c>
       <c r="D101" t="n">
-        <v>71.6683346653552</v>
+        <v>68.7991836699676</v>
       </c>
       <c r="E101" t="n">
-        <v>92.6085891562984</v>
+        <v>94.7849606697397</v>
       </c>
       <c r="F101" t="n">
         <v>1890</v>
@@ -4615,13 +4615,13 @@
         <v>103</v>
       </c>
       <c r="C102" t="n">
-        <v>64.2203843314346</v>
+        <v>70.8896272319944</v>
       </c>
       <c r="D102" t="n">
-        <v>55.8537410961537</v>
+        <v>58.5125163269946</v>
       </c>
       <c r="E102" t="n">
-        <v>73.7752413218122</v>
+        <v>82.9181286218787</v>
       </c>
       <c r="F102" t="n">
         <v>1890</v>
@@ -4653,13 +4653,13 @@
         <v>104</v>
       </c>
       <c r="C103" t="n">
-        <v>118.67566787198</v>
+        <v>118.58983186736</v>
       </c>
       <c r="D103" t="n">
-        <v>106.578414948116</v>
+        <v>102.19521925629</v>
       </c>
       <c r="E103" t="n">
-        <v>130.827714436903</v>
+        <v>136.537171466965</v>
       </c>
       <c r="F103" t="n">
         <v>1890</v>
@@ -4691,13 +4691,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>452.691532156606</v>
+        <v>446.546693957729</v>
       </c>
       <c r="D104" t="n">
-        <v>421.479393379221</v>
+        <v>393.304552754732</v>
       </c>
       <c r="E104" t="n">
-        <v>485.03114602584</v>
+        <v>507.431986792182</v>
       </c>
       <c r="F104" t="n">
         <v>1890</v>
@@ -4729,13 +4729,13 @@
         <v>106</v>
       </c>
       <c r="C105" t="n">
-        <v>50.2658645779469</v>
+        <v>49.3629908246567</v>
       </c>
       <c r="D105" t="n">
-        <v>42.906810133716</v>
+        <v>41.8525098092296</v>
       </c>
       <c r="E105" t="n">
-        <v>57.9063810855626</v>
+        <v>59.0212440054928</v>
       </c>
       <c r="F105" t="n">
         <v>1890</v>
@@ -4767,13 +4767,13 @@
         <v>107</v>
       </c>
       <c r="C106" t="n">
-        <v>100.111254740589</v>
+        <v>98.7028352219515</v>
       </c>
       <c r="D106" t="n">
-        <v>89.4334268915892</v>
+        <v>85.1341513424031</v>
       </c>
       <c r="E106" t="n">
-        <v>112.09114835394</v>
+        <v>114.908334032941</v>
       </c>
       <c r="F106" t="n">
         <v>1890</v>
@@ -4805,13 +4805,13 @@
         <v>108</v>
       </c>
       <c r="C107" t="n">
-        <v>63.6777717987444</v>
+        <v>60.9934238476687</v>
       </c>
       <c r="D107" t="n">
-        <v>55.2992564940677</v>
+        <v>51.5690612955492</v>
       </c>
       <c r="E107" t="n">
-        <v>72.6295617996849</v>
+        <v>72.2037823492939</v>
       </c>
       <c r="F107" t="n">
         <v>1890</v>
@@ -4843,13 +4843,13 @@
         <v>109</v>
       </c>
       <c r="C108" t="n">
-        <v>74.110858809184</v>
+        <v>75.6045168885599</v>
       </c>
       <c r="D108" t="n">
-        <v>64.8401684220986</v>
+        <v>64.4009416143088</v>
       </c>
       <c r="E108" t="n">
-        <v>84.5497012450517</v>
+        <v>88.780983504931</v>
       </c>
       <c r="F108" t="n">
         <v>1890</v>
@@ -4881,13 +4881,13 @@
         <v>110</v>
       </c>
       <c r="C109" t="n">
-        <v>128.337185534021</v>
+        <v>130.182503394573</v>
       </c>
       <c r="D109" t="n">
-        <v>115.546885101564</v>
+        <v>112.85951880732</v>
       </c>
       <c r="E109" t="n">
-        <v>142.044256525727</v>
+        <v>151.369643301648</v>
       </c>
       <c r="F109" t="n">
         <v>1890</v>
@@ -4919,13 +4919,13 @@
         <v>111</v>
       </c>
       <c r="C110" t="n">
-        <v>27.440379096692</v>
+        <v>27.6433088324124</v>
       </c>
       <c r="D110" t="n">
-        <v>22.9936443673026</v>
+        <v>22.8266171694945</v>
       </c>
       <c r="E110" t="n">
-        <v>32.7419026429737</v>
+        <v>34.0786213328083</v>
       </c>
       <c r="F110" t="n">
         <v>1890</v>
@@ -4957,13 +4957,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="n">
-        <v>88.1838531907335</v>
+        <v>87.9069757367067</v>
       </c>
       <c r="D111" t="n">
-        <v>78.0275657122493</v>
+        <v>75.0817454000027</v>
       </c>
       <c r="E111" t="n">
-        <v>99.5248373337369</v>
+        <v>101.519420504418</v>
       </c>
       <c r="F111" t="n">
         <v>1890</v>
@@ -4995,13 +4995,13 @@
         <v>113</v>
       </c>
       <c r="C112" t="n">
-        <v>75.3884040346383</v>
+        <v>74.8455832063657</v>
       </c>
       <c r="D112" t="n">
-        <v>66.4969297645229</v>
+        <v>64.7246197505887</v>
       </c>
       <c r="E112" t="n">
-        <v>85.2176151799312</v>
+        <v>86.7985459160852</v>
       </c>
       <c r="F112" t="n">
         <v>1890</v>
@@ -5033,13 +5033,13 @@
         <v>114</v>
       </c>
       <c r="C113" t="n">
-        <v>111.786374349926</v>
+        <v>110.653134399372</v>
       </c>
       <c r="D113" t="n">
-        <v>98.6476881926767</v>
+        <v>95.3865799394882</v>
       </c>
       <c r="E113" t="n">
-        <v>124.36385466785</v>
+        <v>127.611487451195</v>
       </c>
       <c r="F113" t="n">
         <v>1890</v>
@@ -5071,13 +5071,13 @@
         <v>115</v>
       </c>
       <c r="C114" t="n">
-        <v>46.7453418847382</v>
+        <v>46.9191172712092</v>
       </c>
       <c r="D114" t="n">
-        <v>39.9480806886957</v>
+        <v>39.5784692464036</v>
       </c>
       <c r="E114" t="n">
-        <v>54.5947595512134</v>
+        <v>55.4019813493877</v>
       </c>
       <c r="F114" t="n">
         <v>1890</v>
@@ -5109,13 +5109,13 @@
         <v>116</v>
       </c>
       <c r="C115" t="n">
-        <v>48.664432320724</v>
+        <v>49.6357958750051</v>
       </c>
       <c r="D115" t="n">
-        <v>41.7211891682706</v>
+        <v>41.2627167449637</v>
       </c>
       <c r="E115" t="n">
-        <v>56.4290985974793</v>
+        <v>59.3725041642837</v>
       </c>
       <c r="F115" t="n">
         <v>1890</v>
@@ -5147,13 +5147,13 @@
         <v>117</v>
       </c>
       <c r="C116" t="n">
-        <v>24.5417794677403</v>
+        <v>24.5449793692201</v>
       </c>
       <c r="D116" t="n">
-        <v>20.2316128954266</v>
+        <v>20.0676565720111</v>
       </c>
       <c r="E116" t="n">
-        <v>29.4982383504971</v>
+        <v>29.6488851029265</v>
       </c>
       <c r="F116" t="n">
         <v>1890</v>
@@ -5185,13 +5185,13 @@
         <v>118</v>
       </c>
       <c r="C117" t="n">
-        <v>131.850737719391</v>
+        <v>132.307134356</v>
       </c>
       <c r="D117" t="n">
-        <v>118.973194140339</v>
+        <v>114.494067913473</v>
       </c>
       <c r="E117" t="n">
-        <v>145.796394094768</v>
+        <v>153.18664722632</v>
       </c>
       <c r="F117" t="n">
         <v>1890</v>
@@ -5223,13 +5223,13 @@
         <v>119</v>
       </c>
       <c r="C118" t="n">
-        <v>56.9329968765278</v>
+        <v>58.1854469986687</v>
       </c>
       <c r="D118" t="n">
-        <v>48.7409404889582</v>
+        <v>49.0400990082735</v>
       </c>
       <c r="E118" t="n">
-        <v>65.3216398227258</v>
+        <v>68.5165680692322</v>
       </c>
       <c r="F118" t="n">
         <v>1890</v>
@@ -5261,13 +5261,13 @@
         <v>120</v>
       </c>
       <c r="C119" t="n">
-        <v>66.012593345138</v>
+        <v>65.5133229973668</v>
       </c>
       <c r="D119" t="n">
-        <v>57.1945055406695</v>
+        <v>55.722854073721</v>
       </c>
       <c r="E119" t="n">
-        <v>74.9969497481871</v>
+        <v>77.6290504914012</v>
       </c>
       <c r="F119" t="n">
         <v>1890</v>
@@ -5299,13 +5299,13 @@
         <v>121</v>
       </c>
       <c r="C120" t="n">
-        <v>137.0065394646</v>
+        <v>136.131809703918</v>
       </c>
       <c r="D120" t="n">
-        <v>123.908625785245</v>
+        <v>117.844861203706</v>
       </c>
       <c r="E120" t="n">
-        <v>150.707429920457</v>
+        <v>156.61480819631</v>
       </c>
       <c r="F120" t="n">
         <v>1890</v>
@@ -5337,13 +5337,13 @@
         <v>122</v>
       </c>
       <c r="C121" t="n">
-        <v>80.8308197490394</v>
+        <v>82.2769323167607</v>
       </c>
       <c r="D121" t="n">
-        <v>70.7600338306317</v>
+        <v>70.9036956367338</v>
       </c>
       <c r="E121" t="n">
-        <v>91.9729944529209</v>
+        <v>95.7074304681521</v>
       </c>
       <c r="F121" t="n">
         <v>1890</v>
@@ -5375,13 +5375,13 @@
         <v>123</v>
       </c>
       <c r="C122" t="n">
-        <v>160.661663742114</v>
+        <v>161.548610084907</v>
       </c>
       <c r="D122" t="n">
-        <v>146.736962843048</v>
+        <v>138.551502501189</v>
       </c>
       <c r="E122" t="n">
-        <v>178.069151662961</v>
+        <v>186.077288834157</v>
       </c>
       <c r="F122" t="n">
         <v>1890</v>
@@ -5413,13 +5413,13 @@
         <v>124</v>
       </c>
       <c r="C123" t="n">
-        <v>148.271398130355</v>
+        <v>143.755722751635</v>
       </c>
       <c r="D123" t="n">
-        <v>133.361330425334</v>
+        <v>125.703292453228</v>
       </c>
       <c r="E123" t="n">
-        <v>164.170528531601</v>
+        <v>165.265389341848</v>
       </c>
       <c r="F123" t="n">
         <v>1890</v>
@@ -5451,13 +5451,13 @@
         <v>125</v>
       </c>
       <c r="C124" t="n">
-        <v>296.234360587313</v>
+        <v>299.221227253417</v>
       </c>
       <c r="D124" t="n">
-        <v>273.355792928283</v>
+        <v>260.247244598078</v>
       </c>
       <c r="E124" t="n">
-        <v>320.703598134277</v>
+        <v>339.276494668017</v>
       </c>
       <c r="F124" t="n">
         <v>1890</v>
@@ -5489,13 +5489,13 @@
         <v>126</v>
       </c>
       <c r="C125" t="n">
-        <v>171.192329398734</v>
+        <v>172.859392118235</v>
       </c>
       <c r="D125" t="n">
-        <v>155.959957074514</v>
+        <v>152.014046760454</v>
       </c>
       <c r="E125" t="n">
-        <v>187.129034511877</v>
+        <v>199.999355236386</v>
       </c>
       <c r="F125" t="n">
         <v>1890</v>
@@ -5527,13 +5527,13 @@
         <v>127</v>
       </c>
       <c r="C126" t="n">
-        <v>59.496429436022</v>
+        <v>60.078767868881</v>
       </c>
       <c r="D126" t="n">
-        <v>51.3543861233994</v>
+        <v>51.0633781864455</v>
       </c>
       <c r="E126" t="n">
-        <v>68.1353738841213</v>
+        <v>70.6094919795354</v>
       </c>
       <c r="F126" t="n">
         <v>1890</v>
@@ -5565,13 +5565,13 @@
         <v>128</v>
       </c>
       <c r="C127" t="n">
-        <v>91.5068038218768</v>
+        <v>90.7463011436225</v>
       </c>
       <c r="D127" t="n">
-        <v>80.9276441268717</v>
+        <v>77.8643538606233</v>
       </c>
       <c r="E127" t="n">
-        <v>102.89724044163</v>
+        <v>105.048589293368</v>
       </c>
       <c r="F127" t="n">
         <v>1890</v>
@@ -5603,13 +5603,13 @@
         <v>130</v>
       </c>
       <c r="C128" t="n">
-        <v>51.716037370721</v>
+        <v>52.8459786265274</v>
       </c>
       <c r="D128" t="n">
-        <v>44.3700056759612</v>
+        <v>44.6343161700943</v>
       </c>
       <c r="E128" t="n">
-        <v>59.5107145997494</v>
+        <v>62.3507036389409</v>
       </c>
       <c r="F128" t="n">
         <v>1890</v>
@@ -5641,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>52.1124239883411</v>
+        <v>47.4427565164594</v>
       </c>
       <c r="D129" t="n">
-        <v>43.8035379499151</v>
+        <v>0.081793722590657</v>
       </c>
       <c r="E129" t="n">
-        <v>61.5075836793538</v>
+        <v>2873567.91695227</v>
       </c>
       <c r="F129" t="n">
         <v>1891</v>
@@ -5679,13 +5679,13 @@
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>14.5356023197908</v>
+        <v>14.5822119128539</v>
       </c>
       <c r="D130" t="n">
-        <v>11.2863246051406</v>
+        <v>11.3121845755123</v>
       </c>
       <c r="E130" t="n">
-        <v>18.5464663428752</v>
+        <v>18.6845670714927</v>
       </c>
       <c r="F130" t="n">
         <v>1891</v>
@@ -5717,13 +5717,13 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>82.4137967353874</v>
+        <v>77.5122632888521</v>
       </c>
       <c r="D131" t="n">
-        <v>70.6280950343546</v>
+        <v>64.9789571464647</v>
       </c>
       <c r="E131" t="n">
-        <v>94.6087872205106</v>
+        <v>93.7833289410118</v>
       </c>
       <c r="F131" t="n">
         <v>1891</v>
@@ -5755,13 +5755,13 @@
         <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>425.424202221111</v>
+        <v>411.373550403904</v>
       </c>
       <c r="D132" t="n">
-        <v>393.467869706031</v>
+        <v>351.720507519059</v>
       </c>
       <c r="E132" t="n">
-        <v>457.913613330112</v>
+        <v>482.685410865996</v>
       </c>
       <c r="F132" t="n">
         <v>1891</v>
@@ -5793,13 +5793,13 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>100.744736873354</v>
+        <v>101.642880627017</v>
       </c>
       <c r="D133" t="n">
-        <v>88.0400124285331</v>
+        <v>85.0073889000598</v>
       </c>
       <c r="E133" t="n">
-        <v>114.260066399977</v>
+        <v>121.780153493034</v>
       </c>
       <c r="F133" t="n">
         <v>1891</v>
@@ -5831,13 +5831,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>212.123234070225</v>
+        <v>228.694101739601</v>
       </c>
       <c r="D134" t="n">
-        <v>192.079720664775</v>
+        <v>191.765153696854</v>
       </c>
       <c r="E134" t="n">
-        <v>235.151021069208</v>
+        <v>276.383136475729</v>
       </c>
       <c r="F134" t="n">
         <v>1891</v>
@@ -5869,13 +5869,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>86.9998000959736</v>
+        <v>89.4015423685315</v>
       </c>
       <c r="D135" t="n">
-        <v>75.9546767059381</v>
+        <v>74.9525712865676</v>
       </c>
       <c r="E135" t="n">
-        <v>100.00281855725</v>
+        <v>107.706511624385</v>
       </c>
       <c r="F135" t="n">
         <v>1891</v>
@@ -5907,13 +5907,13 @@
         <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>52.6736147958882</v>
+        <v>51.8897381276887</v>
       </c>
       <c r="D136" t="n">
-        <v>44.7641764920296</v>
+        <v>42.5866137208769</v>
       </c>
       <c r="E136" t="n">
-        <v>62.0270280831727</v>
+        <v>63.5353968241158</v>
       </c>
       <c r="F136" t="n">
         <v>1891</v>
@@ -5945,13 +5945,13 @@
         <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>76.2709781751675</v>
+        <v>79.1212637574348</v>
       </c>
       <c r="D137" t="n">
-        <v>65.6498914363271</v>
+        <v>65.4115427235782</v>
       </c>
       <c r="E137" t="n">
-        <v>88.3561216983908</v>
+        <v>96.0879236521105</v>
       </c>
       <c r="F137" t="n">
         <v>1891</v>
@@ -5983,13 +5983,13 @@
         <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>29.7030297164201</v>
+        <v>29.5966037891205</v>
       </c>
       <c r="D138" t="n">
-        <v>24.0124353658667</v>
+        <v>23.7361258539288</v>
       </c>
       <c r="E138" t="n">
-        <v>35.8233428121931</v>
+        <v>36.3498010933459</v>
       </c>
       <c r="F138" t="n">
         <v>1891</v>
@@ -6021,13 +6021,13 @@
         <v>11</v>
       </c>
       <c r="C139" t="n">
-        <v>36.8085604699333</v>
+        <v>37.046964813943</v>
       </c>
       <c r="D139" t="n">
-        <v>30.3170869851517</v>
+        <v>29.5288981450908</v>
       </c>
       <c r="E139" t="n">
-        <v>44.6248745936095</v>
+        <v>45.2516078936645</v>
       </c>
       <c r="F139" t="n">
         <v>1891</v>
@@ -6059,13 +6059,13 @@
         <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>62.1075836432851</v>
+        <v>61.4749732942512</v>
       </c>
       <c r="D140" t="n">
-        <v>52.3138719688211</v>
+        <v>50.8448059092195</v>
       </c>
       <c r="E140" t="n">
-        <v>72.4937187523029</v>
+        <v>74.9767722238752</v>
       </c>
       <c r="F140" t="n">
         <v>1891</v>
@@ -6097,13 +6097,13 @@
         <v>13</v>
       </c>
       <c r="C141" t="n">
-        <v>49.7965476935078</v>
+        <v>51.598610181566</v>
       </c>
       <c r="D141" t="n">
-        <v>41.5223208471792</v>
+        <v>41.9124428846059</v>
       </c>
       <c r="E141" t="n">
-        <v>58.5634482687746</v>
+        <v>63.5746073093872</v>
       </c>
       <c r="F141" t="n">
         <v>1891</v>
@@ -6135,13 +6135,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>48.9227856719778</v>
+        <v>48.759188214435</v>
       </c>
       <c r="D142" t="n">
-        <v>40.7762773462015</v>
+        <v>39.4318039366717</v>
       </c>
       <c r="E142" t="n">
-        <v>57.279047969951</v>
+        <v>59.5456849268894</v>
       </c>
       <c r="F142" t="n">
         <v>1891</v>
@@ -6173,13 +6173,13 @@
         <v>15</v>
       </c>
       <c r="C143" t="n">
-        <v>93.3461851034045</v>
+        <v>95.1565608731561</v>
       </c>
       <c r="D143" t="n">
-        <v>80.5387762045869</v>
+        <v>79.2831738868208</v>
       </c>
       <c r="E143" t="n">
-        <v>106.555852559253</v>
+        <v>114.934269156703</v>
       </c>
       <c r="F143" t="n">
         <v>1891</v>
@@ -6211,13 +6211,13 @@
         <v>16</v>
       </c>
       <c r="C144" t="n">
-        <v>126.359827578586</v>
+        <v>127.584199648163</v>
       </c>
       <c r="D144" t="n">
-        <v>111.982898790771</v>
+        <v>107.952778685288</v>
       </c>
       <c r="E144" t="n">
-        <v>142.735717525513</v>
+        <v>153.399312980668</v>
       </c>
       <c r="F144" t="n">
         <v>1891</v>
@@ -6249,13 +6249,13 @@
         <v>17</v>
       </c>
       <c r="C145" t="n">
-        <v>47.3046260352439</v>
+        <v>47.0969887197146</v>
       </c>
       <c r="D145" t="n">
-        <v>39.3842753330994</v>
+        <v>37.9142049789998</v>
       </c>
       <c r="E145" t="n">
-        <v>56.5992402234215</v>
+        <v>58.5473682129407</v>
       </c>
       <c r="F145" t="n">
         <v>1891</v>
@@ -6287,13 +6287,13 @@
         <v>18</v>
       </c>
       <c r="C146" t="n">
-        <v>39.6007425735138</v>
+        <v>39.0416826141698</v>
       </c>
       <c r="D146" t="n">
-        <v>32.2282362913877</v>
+        <v>31.8835598050121</v>
       </c>
       <c r="E146" t="n">
-        <v>47.6009335969966</v>
+        <v>48.763992238962</v>
       </c>
       <c r="F146" t="n">
         <v>1891</v>
@@ -6325,13 +6325,13 @@
         <v>19</v>
       </c>
       <c r="C147" t="n">
-        <v>48.1493126273473</v>
+        <v>46.7326855883465</v>
       </c>
       <c r="D147" t="n">
-        <v>40.197702302707</v>
+        <v>38.0665150800739</v>
       </c>
       <c r="E147" t="n">
-        <v>57.110654513688</v>
+        <v>57.0400616784901</v>
       </c>
       <c r="F147" t="n">
         <v>1891</v>
@@ -6363,13 +6363,13 @@
         <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>70.143612189415</v>
+        <v>71.7314691584515</v>
       </c>
       <c r="D148" t="n">
-        <v>60.7522320083682</v>
+        <v>59.7026190874511</v>
       </c>
       <c r="E148" t="n">
-        <v>81.1532048099701</v>
+        <v>86.4555850401478</v>
       </c>
       <c r="F148" t="n">
         <v>1891</v>
@@ -6401,13 +6401,13 @@
         <v>21</v>
       </c>
       <c r="C149" t="n">
-        <v>55.6487724509253</v>
+        <v>56.8543510042775</v>
       </c>
       <c r="D149" t="n">
-        <v>47.1285584944764</v>
+        <v>46.7362626417816</v>
       </c>
       <c r="E149" t="n">
-        <v>65.4182842414106</v>
+        <v>68.6345762852506</v>
       </c>
       <c r="F149" t="n">
         <v>1891</v>
@@ -6439,13 +6439,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>96.207521303466</v>
+        <v>88.0748055761972</v>
       </c>
       <c r="D150" t="n">
-        <v>83.621419289105</v>
+        <v>72.0315402346217</v>
       </c>
       <c r="E150" t="n">
-        <v>110.256830610373</v>
+        <v>105.272125241769</v>
       </c>
       <c r="F150" t="n">
         <v>1891</v>
@@ -6477,13 +6477,13 @@
         <v>23</v>
       </c>
       <c r="C151" t="n">
-        <v>91.6773682071739</v>
+        <v>92.8279154964482</v>
       </c>
       <c r="D151" t="n">
-        <v>79.9620984683697</v>
+        <v>76.8158388084078</v>
       </c>
       <c r="E151" t="n">
-        <v>104.116842720173</v>
+        <v>112.885492371856</v>
       </c>
       <c r="F151" t="n">
         <v>1891</v>
@@ -6515,13 +6515,13 @@
         <v>24</v>
       </c>
       <c r="C152" t="n">
-        <v>90.8246471054865</v>
+        <v>87.7163815272259</v>
       </c>
       <c r="D152" t="n">
-        <v>79.6550850325925</v>
+        <v>72.4581960638893</v>
       </c>
       <c r="E152" t="n">
-        <v>103.893775963805</v>
+        <v>105.362836918225</v>
       </c>
       <c r="F152" t="n">
         <v>1891</v>
@@ -6553,13 +6553,13 @@
         <v>25</v>
       </c>
       <c r="C153" t="n">
-        <v>70.3745235460186</v>
+        <v>69.3490175889249</v>
       </c>
       <c r="D153" t="n">
-        <v>60.2421558382225</v>
+        <v>57.6718866624051</v>
       </c>
       <c r="E153" t="n">
-        <v>82.4093170713959</v>
+        <v>83.83390939887</v>
       </c>
       <c r="F153" t="n">
         <v>1891</v>
@@ -6591,13 +6591,13 @@
         <v>26</v>
       </c>
       <c r="C154" t="n">
-        <v>72.4353667150504</v>
+        <v>74.6788006186666</v>
       </c>
       <c r="D154" t="n">
-        <v>62.1908466450948</v>
+        <v>62.3217080598429</v>
       </c>
       <c r="E154" t="n">
-        <v>83.6351167190838</v>
+        <v>88.9091435885457</v>
       </c>
       <c r="F154" t="n">
         <v>1891</v>
@@ -6629,13 +6629,13 @@
         <v>27</v>
       </c>
       <c r="C155" t="n">
-        <v>26.2331029602672</v>
+        <v>26.3807075746234</v>
       </c>
       <c r="D155" t="n">
-        <v>21.0235875475198</v>
+        <v>20.931003677593</v>
       </c>
       <c r="E155" t="n">
-        <v>32.1509887635062</v>
+        <v>33.0613075375223</v>
       </c>
       <c r="F155" t="n">
         <v>1891</v>
@@ -6667,13 +6667,13 @@
         <v>28</v>
       </c>
       <c r="C156" t="n">
-        <v>34.7351746792722</v>
+        <v>34.3651396003277</v>
       </c>
       <c r="D156" t="n">
-        <v>28.1882379400573</v>
+        <v>27.9117114578025</v>
       </c>
       <c r="E156" t="n">
-        <v>41.925416088979</v>
+        <v>42.6639359023801</v>
       </c>
       <c r="F156" t="n">
         <v>1891</v>
@@ -6705,13 +6705,13 @@
         <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>37.7548130978429</v>
+        <v>38.9347608599072</v>
       </c>
       <c r="D157" t="n">
-        <v>30.9026435044148</v>
+        <v>31.671348189673</v>
       </c>
       <c r="E157" t="n">
-        <v>45.4837181637189</v>
+        <v>47.2670297484402</v>
       </c>
       <c r="F157" t="n">
         <v>1891</v>
@@ -6743,13 +6743,13 @@
         <v>30</v>
       </c>
       <c r="C158" t="n">
-        <v>154.124860450851</v>
+        <v>151.528207950687</v>
       </c>
       <c r="D158" t="n">
-        <v>138.132553961418</v>
+        <v>128.331807609112</v>
       </c>
       <c r="E158" t="n">
-        <v>171.654943574031</v>
+        <v>181.66705972996</v>
       </c>
       <c r="F158" t="n">
         <v>1891</v>
@@ -6781,13 +6781,13 @@
         <v>31</v>
       </c>
       <c r="C159" t="n">
-        <v>65.2552571167593</v>
+        <v>65.4437922506212</v>
       </c>
       <c r="D159" t="n">
-        <v>54.6758046949554</v>
+        <v>53.7479692015083</v>
       </c>
       <c r="E159" t="n">
-        <v>76.5737384836763</v>
+        <v>79.91510061112</v>
       </c>
       <c r="F159" t="n">
         <v>1891</v>
@@ -6819,13 +6819,13 @@
         <v>32</v>
       </c>
       <c r="C160" t="n">
-        <v>23.9585934363125</v>
+        <v>24.0846262436171</v>
       </c>
       <c r="D160" t="n">
-        <v>18.6872338559697</v>
+        <v>19.3055540944976</v>
       </c>
       <c r="E160" t="n">
-        <v>29.2948311730773</v>
+        <v>30.3556448690897</v>
       </c>
       <c r="F160" t="n">
         <v>1891</v>
@@ -6857,13 +6857,13 @@
         <v>33</v>
       </c>
       <c r="C161" t="n">
-        <v>117.383890129802</v>
+        <v>117.744241551625</v>
       </c>
       <c r="D161" t="n">
-        <v>103.728420621402</v>
+        <v>98.1519960978532</v>
       </c>
       <c r="E161" t="n">
-        <v>132.34434776628</v>
+        <v>141.504842357109</v>
       </c>
       <c r="F161" t="n">
         <v>1891</v>
@@ -6895,13 +6895,13 @@
         <v>34</v>
       </c>
       <c r="C162" t="n">
-        <v>28.8479565050518</v>
+        <v>29.1965286762303</v>
       </c>
       <c r="D162" t="n">
-        <v>23.1400159718023</v>
+        <v>23.1257763317278</v>
       </c>
       <c r="E162" t="n">
-        <v>35.5269316429317</v>
+        <v>36.4218888486332</v>
       </c>
       <c r="F162" t="n">
         <v>1891</v>
@@ -6933,13 +6933,13 @@
         <v>35</v>
       </c>
       <c r="C163" t="n">
-        <v>100.242324631201</v>
+        <v>100.382524063188</v>
       </c>
       <c r="D163" t="n">
-        <v>88.1459138054288</v>
+        <v>84.4204519705912</v>
       </c>
       <c r="E163" t="n">
-        <v>114.004659799843</v>
+        <v>121.432646608095</v>
       </c>
       <c r="F163" t="n">
         <v>1891</v>
@@ -6971,13 +6971,13 @@
         <v>36</v>
       </c>
       <c r="C164" t="n">
-        <v>32.1128050734177</v>
+        <v>32.7773825938326</v>
       </c>
       <c r="D164" t="n">
-        <v>25.7569430935439</v>
+        <v>26.455037814631</v>
       </c>
       <c r="E164" t="n">
-        <v>38.9426452384706</v>
+        <v>40.1989426812223</v>
       </c>
       <c r="F164" t="n">
         <v>1891</v>
@@ -7009,13 +7009,13 @@
         <v>38</v>
       </c>
       <c r="C165" t="n">
-        <v>95.3544587101788</v>
+        <v>92.3029876199047</v>
       </c>
       <c r="D165" t="n">
-        <v>83.1494828064385</v>
+        <v>77.0017125872004</v>
       </c>
       <c r="E165" t="n">
-        <v>109.283956107973</v>
+        <v>109.85124502897</v>
       </c>
       <c r="F165" t="n">
         <v>1891</v>
@@ -7047,13 +7047,13 @@
         <v>39</v>
       </c>
       <c r="C166" t="n">
-        <v>173.555870516179</v>
+        <v>175.758077792125</v>
       </c>
       <c r="D166" t="n">
-        <v>156.664471106413</v>
+        <v>146.088025310161</v>
       </c>
       <c r="E166" t="n">
-        <v>192.560960127238</v>
+        <v>210.057855868607</v>
       </c>
       <c r="F166" t="n">
         <v>1891</v>
@@ -7085,13 +7085,13 @@
         <v>41</v>
       </c>
       <c r="C167" t="n">
-        <v>48.2890178722978</v>
+        <v>47.5418013619899</v>
       </c>
       <c r="D167" t="n">
-        <v>40.3949633760238</v>
+        <v>38.9742469843607</v>
       </c>
       <c r="E167" t="n">
-        <v>58.2938865213149</v>
+        <v>58.2788900736393</v>
       </c>
       <c r="F167" t="n">
         <v>1891</v>
@@ -7123,13 +7123,13 @@
         <v>42</v>
       </c>
       <c r="C168" t="n">
-        <v>31.0889950625766</v>
+        <v>30.0818585643041</v>
       </c>
       <c r="D168" t="n">
-        <v>24.829199068802</v>
+        <v>24.7652854742256</v>
       </c>
       <c r="E168" t="n">
-        <v>37.1966388655138</v>
+        <v>37.3509112937866</v>
       </c>
       <c r="F168" t="n">
         <v>1891</v>
@@ -7161,13 +7161,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="n">
-        <v>78.6741115511569</v>
+        <v>75.997115435139</v>
       </c>
       <c r="D169" t="n">
-        <v>67.8355652123312</v>
+        <v>62.7342494418698</v>
       </c>
       <c r="E169" t="n">
-        <v>90.6198117443648</v>
+        <v>91.8177359020011</v>
       </c>
       <c r="F169" t="n">
         <v>1891</v>
@@ -7199,13 +7199,13 @@
         <v>44</v>
       </c>
       <c r="C170" t="n">
-        <v>36.3250649453606</v>
+        <v>36.3364058216163</v>
       </c>
       <c r="D170" t="n">
-        <v>29.1665902246355</v>
+        <v>29.1352049229422</v>
       </c>
       <c r="E170" t="n">
-        <v>43.5147167933496</v>
+        <v>44.8788797084165</v>
       </c>
       <c r="F170" t="n">
         <v>1891</v>
@@ -7237,13 +7237,13 @@
         <v>45</v>
       </c>
       <c r="C171" t="n">
-        <v>57.0619386843776</v>
+        <v>58.4457618642424</v>
       </c>
       <c r="D171" t="n">
-        <v>48.9449552521388</v>
+        <v>47.557702739034</v>
       </c>
       <c r="E171" t="n">
-        <v>68.0208600981225</v>
+        <v>71.0022484346914</v>
       </c>
       <c r="F171" t="n">
         <v>1891</v>
@@ -7275,13 +7275,13 @@
         <v>46</v>
       </c>
       <c r="C172" t="n">
-        <v>83.0980893547018</v>
+        <v>80.3672928462361</v>
       </c>
       <c r="D172" t="n">
-        <v>72.2135377905711</v>
+        <v>67.2133101452654</v>
       </c>
       <c r="E172" t="n">
-        <v>95.3066473375897</v>
+        <v>96.1520907978444</v>
       </c>
       <c r="F172" t="n">
         <v>1891</v>
@@ -7313,13 +7313,13 @@
         <v>47</v>
       </c>
       <c r="C173" t="n">
-        <v>61.6030899181645</v>
+        <v>62.3513146019894</v>
       </c>
       <c r="D173" t="n">
-        <v>52.0088096034648</v>
+        <v>51.1692434406517</v>
       </c>
       <c r="E173" t="n">
-        <v>71.9675885938137</v>
+        <v>75.5392921582624</v>
       </c>
       <c r="F173" t="n">
         <v>1891</v>
@@ -7351,13 +7351,13 @@
         <v>48</v>
       </c>
       <c r="C174" t="n">
-        <v>87.2570092896393</v>
+        <v>85.6333856630373</v>
       </c>
       <c r="D174" t="n">
-        <v>76.0370509821505</v>
+        <v>70.4684934283393</v>
       </c>
       <c r="E174" t="n">
-        <v>99.7127016413962</v>
+        <v>103.475044811595</v>
       </c>
       <c r="F174" t="n">
         <v>1891</v>
@@ -7389,13 +7389,13 @@
         <v>49</v>
       </c>
       <c r="C175" t="n">
-        <v>57.1643718993713</v>
+        <v>57.6016034792983</v>
       </c>
       <c r="D175" t="n">
-        <v>48.8688587486065</v>
+        <v>47.219149423797</v>
       </c>
       <c r="E175" t="n">
-        <v>67.5633869933447</v>
+        <v>70.514177077414</v>
       </c>
       <c r="F175" t="n">
         <v>1891</v>
@@ -7427,13 +7427,13 @@
         <v>50</v>
       </c>
       <c r="C176" t="n">
-        <v>74.6173229929073</v>
+        <v>74.1886470762181</v>
       </c>
       <c r="D176" t="n">
-        <v>64.8875880959908</v>
+        <v>61.3347415269994</v>
       </c>
       <c r="E176" t="n">
-        <v>85.761006212395</v>
+        <v>88.9512804794416</v>
       </c>
       <c r="F176" t="n">
         <v>1891</v>
@@ -7465,13 +7465,13 @@
         <v>51</v>
       </c>
       <c r="C177" t="n">
-        <v>83.5767557608784</v>
+        <v>84.2100172388123</v>
       </c>
       <c r="D177" t="n">
-        <v>72.5671507585932</v>
+        <v>70.392878437559</v>
       </c>
       <c r="E177" t="n">
-        <v>96.1057609074383</v>
+        <v>102.051635937331</v>
       </c>
       <c r="F177" t="n">
         <v>1891</v>
@@ -7503,13 +7503,13 @@
         <v>52</v>
       </c>
       <c r="C178" t="n">
-        <v>40.7710811944871</v>
+        <v>42.5666944910146</v>
       </c>
       <c r="D178" t="n">
-        <v>33.9728132895051</v>
+        <v>34.3344309956341</v>
       </c>
       <c r="E178" t="n">
-        <v>48.741915018263</v>
+        <v>51.9544956633229</v>
       </c>
       <c r="F178" t="n">
         <v>1891</v>
@@ -7541,13 +7541,13 @@
         <v>53</v>
       </c>
       <c r="C179" t="n">
-        <v>19.2256959267672</v>
+        <v>19.797270451277</v>
       </c>
       <c r="D179" t="n">
-        <v>14.8160544512368</v>
+        <v>15.2821385551329</v>
       </c>
       <c r="E179" t="n">
-        <v>24.0201986499998</v>
+        <v>24.8575994220406</v>
       </c>
       <c r="F179" t="n">
         <v>1891</v>
@@ -7579,13 +7579,13 @@
         <v>54</v>
       </c>
       <c r="C180" t="n">
-        <v>214.458017692081</v>
+        <v>211.262969507844</v>
       </c>
       <c r="D180" t="n">
-        <v>194.99428054988</v>
+        <v>180.418145245904</v>
       </c>
       <c r="E180" t="n">
-        <v>235.418648006509</v>
+        <v>252.542121938498</v>
       </c>
       <c r="F180" t="n">
         <v>1891</v>
@@ -7617,13 +7617,13 @@
         <v>55</v>
       </c>
       <c r="C181" t="n">
-        <v>202.686381481953</v>
+        <v>167.678666291741</v>
       </c>
       <c r="D181" t="n">
-        <v>183.248666719404</v>
+        <v>140.092103117067</v>
       </c>
       <c r="E181" t="n">
-        <v>224.711767229346</v>
+        <v>201.632556287759</v>
       </c>
       <c r="F181" t="n">
         <v>1891</v>
@@ -7655,13 +7655,13 @@
         <v>56</v>
       </c>
       <c r="C182" t="n">
-        <v>238.047841826899</v>
+        <v>235.397376604578</v>
       </c>
       <c r="D182" t="n">
-        <v>216.261174103152</v>
+        <v>199.421609341246</v>
       </c>
       <c r="E182" t="n">
-        <v>260.513919521147</v>
+        <v>277.340301466388</v>
       </c>
       <c r="F182" t="n">
         <v>1891</v>
@@ -7693,13 +7693,13 @@
         <v>57</v>
       </c>
       <c r="C183" t="n">
-        <v>298.551983816882</v>
+        <v>295.457361437856</v>
       </c>
       <c r="D183" t="n">
-        <v>275.815583341229</v>
+        <v>248.494105075853</v>
       </c>
       <c r="E183" t="n">
-        <v>322.178388522061</v>
+        <v>346.64227662577</v>
       </c>
       <c r="F183" t="n">
         <v>1891</v>
@@ -7731,13 +7731,13 @@
         <v>58</v>
       </c>
       <c r="C184" t="n">
-        <v>118.565184903647</v>
+        <v>120.052165610049</v>
       </c>
       <c r="D184" t="n">
-        <v>105.439477891745</v>
+        <v>101.057565695671</v>
       </c>
       <c r="E184" t="n">
-        <v>133.404363294076</v>
+        <v>144.764009010989</v>
       </c>
       <c r="F184" t="n">
         <v>1891</v>
@@ -7769,13 +7769,13 @@
         <v>59</v>
       </c>
       <c r="C185" t="n">
-        <v>88.9362834549937</v>
+        <v>91.531676473566</v>
       </c>
       <c r="D185" t="n">
-        <v>77.8433026648421</v>
+        <v>75.1446729501737</v>
       </c>
       <c r="E185" t="n">
-        <v>102.609858973549</v>
+        <v>109.689337813684</v>
       </c>
       <c r="F185" t="n">
         <v>1891</v>
@@ -7807,13 +7807,13 @@
         <v>60</v>
       </c>
       <c r="C186" t="n">
-        <v>34.6991342883358</v>
+        <v>36.1548014762856</v>
       </c>
       <c r="D186" t="n">
-        <v>28.5684210759254</v>
+        <v>29.0251818418031</v>
       </c>
       <c r="E186" t="n">
-        <v>42.2608284820071</v>
+        <v>44.9876747188265</v>
       </c>
       <c r="F186" t="n">
         <v>1891</v>
@@ -7845,13 +7845,13 @@
         <v>61</v>
       </c>
       <c r="C187" t="n">
-        <v>57.3915655623524</v>
+        <v>56.9025467595784</v>
       </c>
       <c r="D187" t="n">
-        <v>48.6139777560652</v>
+        <v>47.2197191238643</v>
       </c>
       <c r="E187" t="n">
-        <v>68.2909383470366</v>
+        <v>69.3532204404867</v>
       </c>
       <c r="F187" t="n">
         <v>1891</v>
@@ -7883,13 +7883,13 @@
         <v>62</v>
       </c>
       <c r="C188" t="n">
-        <v>154.137074025507</v>
+        <v>154.407783068508</v>
       </c>
       <c r="D188" t="n">
-        <v>137.512803835946</v>
+        <v>129.494655445159</v>
       </c>
       <c r="E188" t="n">
-        <v>171.270887555013</v>
+        <v>183.946640672235</v>
       </c>
       <c r="F188" t="n">
         <v>1891</v>
@@ -7921,13 +7921,13 @@
         <v>63</v>
       </c>
       <c r="C189" t="n">
-        <v>28.4701082572269</v>
+        <v>29.2367164061239</v>
       </c>
       <c r="D189" t="n">
-        <v>22.7933995890581</v>
+        <v>23.0285447891425</v>
       </c>
       <c r="E189" t="n">
-        <v>34.4543662195229</v>
+        <v>36.8588623009344</v>
       </c>
       <c r="F189" t="n">
         <v>1891</v>
@@ -7959,13 +7959,13 @@
         <v>64</v>
       </c>
       <c r="C190" t="n">
-        <v>66.4555307623487</v>
+        <v>65.8106981349043</v>
       </c>
       <c r="D190" t="n">
-        <v>56.962551280987</v>
+        <v>53.6655104300498</v>
       </c>
       <c r="E190" t="n">
-        <v>77.6590805653512</v>
+        <v>79.0299959981615</v>
       </c>
       <c r="F190" t="n">
         <v>1891</v>
@@ -7997,13 +7997,13 @@
         <v>65</v>
       </c>
       <c r="C191" t="n">
-        <v>46.9846641852561</v>
+        <v>47.0969776755242</v>
       </c>
       <c r="D191" t="n">
-        <v>38.8359023324452</v>
+        <v>38.6999869738792</v>
       </c>
       <c r="E191" t="n">
-        <v>55.963721444919</v>
+        <v>57.5039366190244</v>
       </c>
       <c r="F191" t="n">
         <v>1891</v>
@@ -8035,13 +8035,13 @@
         <v>66</v>
       </c>
       <c r="C192" t="n">
-        <v>60.0545342118865</v>
+        <v>58.8337162709609</v>
       </c>
       <c r="D192" t="n">
-        <v>51.0834178585739</v>
+        <v>48.3262091084974</v>
       </c>
       <c r="E192" t="n">
-        <v>70.3043460809168</v>
+        <v>70.8740963388321</v>
       </c>
       <c r="F192" t="n">
         <v>1891</v>
@@ -8073,13 +8073,13 @@
         <v>67</v>
       </c>
       <c r="C193" t="n">
-        <v>101.461607638412</v>
+        <v>97.8599612172402</v>
       </c>
       <c r="D193" t="n">
-        <v>88.8976329903663</v>
+        <v>81.5938882103851</v>
       </c>
       <c r="E193" t="n">
-        <v>114.343507816736</v>
+        <v>116.131561967872</v>
       </c>
       <c r="F193" t="n">
         <v>1891</v>
@@ -8111,13 +8111,13 @@
         <v>68</v>
       </c>
       <c r="C194" t="n">
-        <v>69.6816795986427</v>
+        <v>71.8962908424293</v>
       </c>
       <c r="D194" t="n">
-        <v>60.0717785760961</v>
+        <v>59.2687903427765</v>
       </c>
       <c r="E194" t="n">
-        <v>80.0370229401967</v>
+        <v>87.143338893074</v>
       </c>
       <c r="F194" t="n">
         <v>1891</v>
@@ -8149,13 +8149,13 @@
         <v>69</v>
       </c>
       <c r="C195" t="n">
-        <v>88.3303678388375</v>
+        <v>89.1822949932773</v>
       </c>
       <c r="D195" t="n">
-        <v>77.1222072306053</v>
+        <v>74.6250891686016</v>
       </c>
       <c r="E195" t="n">
-        <v>101.856972417355</v>
+        <v>107.632865391852</v>
       </c>
       <c r="F195" t="n">
         <v>1891</v>
@@ -8187,13 +8187,13 @@
         <v>70</v>
       </c>
       <c r="C196" t="n">
-        <v>43.9367557693155</v>
+        <v>43.201011878403</v>
       </c>
       <c r="D196" t="n">
-        <v>36.3875954721811</v>
+        <v>35.0216028145989</v>
       </c>
       <c r="E196" t="n">
-        <v>52.2116627300873</v>
+        <v>53.0510887297335</v>
       </c>
       <c r="F196" t="n">
         <v>1891</v>
@@ -8225,13 +8225,13 @@
         <v>71</v>
       </c>
       <c r="C197" t="n">
-        <v>27.7083133938668</v>
+        <v>29.4215395203056</v>
       </c>
       <c r="D197" t="n">
-        <v>22.3075217618875</v>
+        <v>23.2834423206472</v>
       </c>
       <c r="E197" t="n">
-        <v>34.3916707201477</v>
+        <v>36.1375369899239</v>
       </c>
       <c r="F197" t="n">
         <v>1891</v>
@@ -8263,13 +8263,13 @@
         <v>72</v>
       </c>
       <c r="C198" t="n">
-        <v>68.8319028571303</v>
+        <v>68.5478982963213</v>
       </c>
       <c r="D198" t="n">
-        <v>59.1553463954542</v>
+        <v>56.7200216633847</v>
       </c>
       <c r="E198" t="n">
-        <v>80.2863566925609</v>
+        <v>82.9498338887566</v>
       </c>
       <c r="F198" t="n">
         <v>1891</v>
@@ -8301,13 +8301,13 @@
         <v>73</v>
       </c>
       <c r="C199" t="n">
-        <v>177.205869851833</v>
+        <v>153.706485166292</v>
       </c>
       <c r="D199" t="n">
-        <v>159.953054872505</v>
+        <v>128.64385085439</v>
       </c>
       <c r="E199" t="n">
-        <v>196.046282681952</v>
+        <v>183.014354145781</v>
       </c>
       <c r="F199" t="n">
         <v>1891</v>
@@ -8339,13 +8339,13 @@
         <v>74</v>
       </c>
       <c r="C200" t="n">
-        <v>28.7595679513263</v>
+        <v>29.5923175179968</v>
       </c>
       <c r="D200" t="n">
-        <v>23.1476618610893</v>
+        <v>23.7137480940069</v>
       </c>
       <c r="E200" t="n">
-        <v>35.2534419284029</v>
+        <v>36.9593472897398</v>
       </c>
       <c r="F200" t="n">
         <v>1891</v>
@@ -8377,13 +8377,13 @@
         <v>75</v>
       </c>
       <c r="C201" t="n">
-        <v>11.1614834318054</v>
+        <v>10.7665996826773</v>
       </c>
       <c r="D201" t="n">
-        <v>8.60639273920448</v>
+        <v>8.41918920940145</v>
       </c>
       <c r="E201" t="n">
-        <v>14.4555418671866</v>
+        <v>14.0390082066886</v>
       </c>
       <c r="F201" t="n">
         <v>1891</v>
@@ -8415,13 +8415,13 @@
         <v>76</v>
       </c>
       <c r="C202" t="n">
-        <v>113.010211213671</v>
+        <v>114.351064787994</v>
       </c>
       <c r="D202" t="n">
-        <v>100.172618424643</v>
+        <v>95.0683768612535</v>
       </c>
       <c r="E202" t="n">
-        <v>128.282345313388</v>
+        <v>137.681573474987</v>
       </c>
       <c r="F202" t="n">
         <v>1891</v>
@@ -8453,13 +8453,13 @@
         <v>77</v>
       </c>
       <c r="C203" t="n">
-        <v>41.1804446247939</v>
+        <v>41.6916592024152</v>
       </c>
       <c r="D203" t="n">
-        <v>34.0987559135464</v>
+        <v>33.7962603756364</v>
       </c>
       <c r="E203" t="n">
-        <v>49.9611447114577</v>
+        <v>51.314475623766</v>
       </c>
       <c r="F203" t="n">
         <v>1891</v>
@@ -8491,13 +8491,13 @@
         <v>78</v>
       </c>
       <c r="C204" t="n">
-        <v>89.8698342577215</v>
+        <v>86.3508967413905</v>
       </c>
       <c r="D204" t="n">
-        <v>78.284533240217</v>
+        <v>71.8027928660617</v>
       </c>
       <c r="E204" t="n">
-        <v>102.93082842799</v>
+        <v>105.367187454677</v>
       </c>
       <c r="F204" t="n">
         <v>1891</v>
@@ -8529,13 +8529,13 @@
         <v>79</v>
       </c>
       <c r="C205" t="n">
-        <v>77.0772991073091</v>
+        <v>78.4965178464981</v>
       </c>
       <c r="D205" t="n">
-        <v>66.7835003032072</v>
+        <v>65.7753592492557</v>
       </c>
       <c r="E205" t="n">
-        <v>88.9185276338368</v>
+        <v>95.8475543996427</v>
       </c>
       <c r="F205" t="n">
         <v>1891</v>
@@ -8567,13 +8567,13 @@
         <v>80</v>
       </c>
       <c r="C206" t="n">
-        <v>160.929526508826</v>
+        <v>156.627457380967</v>
       </c>
       <c r="D206" t="n">
-        <v>145.011312792291</v>
+        <v>132.816005289346</v>
       </c>
       <c r="E206" t="n">
-        <v>179.821193301103</v>
+        <v>184.320280238822</v>
       </c>
       <c r="F206" t="n">
         <v>1891</v>
@@ -8605,13 +8605,13 @@
         <v>81</v>
       </c>
       <c r="C207" t="n">
-        <v>74.8106766867563</v>
+        <v>75.9200883417123</v>
       </c>
       <c r="D207" t="n">
-        <v>64.543123401913</v>
+        <v>62.4010397728133</v>
       </c>
       <c r="E207" t="n">
-        <v>86.9921092248032</v>
+        <v>91.1063756042096</v>
       </c>
       <c r="F207" t="n">
         <v>1891</v>
@@ -8643,13 +8643,13 @@
         <v>82</v>
       </c>
       <c r="C208" t="n">
-        <v>324.276827978987</v>
+        <v>335.273080957729</v>
       </c>
       <c r="D208" t="n">
-        <v>299.485934587772</v>
+        <v>286.285915240132</v>
       </c>
       <c r="E208" t="n">
-        <v>350.957238915409</v>
+        <v>394.475489629333</v>
       </c>
       <c r="F208" t="n">
         <v>1891</v>
@@ -8681,13 +8681,13 @@
         <v>83</v>
       </c>
       <c r="C209" t="n">
-        <v>98.3589546542546</v>
+        <v>99.9940993404971</v>
       </c>
       <c r="D209" t="n">
-        <v>86.0974036443093</v>
+        <v>83.1053272075912</v>
       </c>
       <c r="E209" t="n">
-        <v>111.828949931295</v>
+        <v>120.235831181516</v>
       </c>
       <c r="F209" t="n">
         <v>1891</v>
@@ -8719,13 +8719,13 @@
         <v>84</v>
       </c>
       <c r="C210" t="n">
-        <v>75.6236334886072</v>
+        <v>75.2912389820481</v>
       </c>
       <c r="D210" t="n">
-        <v>65.1011131331756</v>
+        <v>61.3620803038958</v>
       </c>
       <c r="E210" t="n">
-        <v>87.8822887066677</v>
+        <v>90.7918195633823</v>
       </c>
       <c r="F210" t="n">
         <v>1891</v>
@@ -8757,13 +8757,13 @@
         <v>85</v>
       </c>
       <c r="C211" t="n">
-        <v>134.204219591894</v>
+        <v>116.822997324779</v>
       </c>
       <c r="D211" t="n">
-        <v>117.706775890745</v>
+        <v>97.8901375693512</v>
       </c>
       <c r="E211" t="n">
-        <v>151.28083416476</v>
+        <v>140.871275454171</v>
       </c>
       <c r="F211" t="n">
         <v>1891</v>
@@ -8795,13 +8795,13 @@
         <v>86</v>
       </c>
       <c r="C212" t="n">
-        <v>184.119624838663</v>
+        <v>179.779790697067</v>
       </c>
       <c r="D212" t="n">
-        <v>165.023485654864</v>
+        <v>150.947282111111</v>
       </c>
       <c r="E212" t="n">
-        <v>202.611268501669</v>
+        <v>212.717335117832</v>
       </c>
       <c r="F212" t="n">
         <v>1891</v>
@@ -8833,13 +8833,13 @@
         <v>87</v>
       </c>
       <c r="C213" t="n">
-        <v>29.1939632836203</v>
+        <v>29.8182430803057</v>
       </c>
       <c r="D213" t="n">
-        <v>23.6407532396959</v>
+        <v>23.6493773244694</v>
       </c>
       <c r="E213" t="n">
-        <v>36.4154753012575</v>
+        <v>36.8066466899929</v>
       </c>
       <c r="F213" t="n">
         <v>1891</v>
@@ -8871,13 +8871,13 @@
         <v>88</v>
       </c>
       <c r="C214" t="n">
-        <v>61.0169283195424</v>
+        <v>72.5234157340761</v>
       </c>
       <c r="D214" t="n">
-        <v>51.6077199586784</v>
+        <v>57.9839624269042</v>
       </c>
       <c r="E214" t="n">
-        <v>71.2168607641293</v>
+        <v>92.7337245951484</v>
       </c>
       <c r="F214" t="n">
         <v>1891</v>
@@ -8909,13 +8909,13 @@
         <v>89</v>
       </c>
       <c r="C215" t="n">
-        <v>90.8386201827714</v>
+        <v>92.0185042066453</v>
       </c>
       <c r="D215" t="n">
-        <v>79.0845791827321</v>
+        <v>78.1628798059271</v>
       </c>
       <c r="E215" t="n">
-        <v>103.717310958009</v>
+        <v>111.91290025882</v>
       </c>
       <c r="F215" t="n">
         <v>1891</v>
@@ -8947,13 +8947,13 @@
         <v>90</v>
       </c>
       <c r="C216" t="n">
-        <v>52.1118531806632</v>
+        <v>51.3811879366039</v>
       </c>
       <c r="D216" t="n">
-        <v>43.2452407020883</v>
+        <v>41.2208645849472</v>
       </c>
       <c r="E216" t="n">
-        <v>61.0187823367341</v>
+        <v>63.4486842721485</v>
       </c>
       <c r="F216" t="n">
         <v>1891</v>
@@ -8985,13 +8985,13 @@
         <v>91</v>
       </c>
       <c r="C217" t="n">
-        <v>199.66863584627</v>
+        <v>203.159437807671</v>
       </c>
       <c r="D217" t="n">
-        <v>178.590160946307</v>
+        <v>171.521020899795</v>
       </c>
       <c r="E217" t="n">
-        <v>218.74797066926</v>
+        <v>238.13437284332</v>
       </c>
       <c r="F217" t="n">
         <v>1891</v>
@@ -9023,13 +9023,13 @@
         <v>92</v>
       </c>
       <c r="C218" t="n">
-        <v>179.765808174525</v>
+        <v>173.009834645147</v>
       </c>
       <c r="D218" t="n">
-        <v>161.771535736811</v>
+        <v>145.312824916122</v>
       </c>
       <c r="E218" t="n">
-        <v>198.447533616341</v>
+        <v>205.068301855561</v>
       </c>
       <c r="F218" t="n">
         <v>1891</v>
@@ -9061,13 +9061,13 @@
         <v>93</v>
       </c>
       <c r="C219" t="n">
-        <v>46.261522660468</v>
+        <v>45.1276868979171</v>
       </c>
       <c r="D219" t="n">
-        <v>38.2469290961109</v>
+        <v>36.4819246035629</v>
       </c>
       <c r="E219" t="n">
-        <v>56.0066590736835</v>
+        <v>54.8894605142791</v>
       </c>
       <c r="F219" t="n">
         <v>1891</v>
@@ -9099,13 +9099,13 @@
         <v>94</v>
       </c>
       <c r="C220" t="n">
-        <v>5.54850561848468</v>
+        <v>5.43933943549297</v>
       </c>
       <c r="D220" t="n">
-        <v>4.05497805656871</v>
+        <v>4.14114413918261</v>
       </c>
       <c r="E220" t="n">
-        <v>7.47162485915704</v>
+        <v>7.28687669767544</v>
       </c>
       <c r="F220" t="n">
         <v>1891</v>
@@ -9137,13 +9137,13 @@
         <v>95</v>
       </c>
       <c r="C221" t="n">
-        <v>86.7822632265768</v>
+        <v>84.1908601145933</v>
       </c>
       <c r="D221" t="n">
-        <v>75.5948523474342</v>
+        <v>70.1683800796866</v>
       </c>
       <c r="E221" t="n">
-        <v>99.4040616739976</v>
+        <v>100.938902841841</v>
       </c>
       <c r="F221" t="n">
         <v>1891</v>
@@ -9175,13 +9175,13 @@
         <v>96</v>
       </c>
       <c r="C222" t="n">
-        <v>161.751773108509</v>
+        <v>158.436154840479</v>
       </c>
       <c r="D222" t="n">
-        <v>144.364215978784</v>
+        <v>133.512334773233</v>
       </c>
       <c r="E222" t="n">
-        <v>178.643244901377</v>
+        <v>187.458540512631</v>
       </c>
       <c r="F222" t="n">
         <v>1891</v>
@@ -9213,13 +9213,13 @@
         <v>97</v>
       </c>
       <c r="C223" t="n">
-        <v>120.326028102753</v>
+        <v>118.003387727556</v>
       </c>
       <c r="D223" t="n">
-        <v>106.54318866512</v>
+        <v>99.3873532284766</v>
       </c>
       <c r="E223" t="n">
-        <v>136.061079949858</v>
+        <v>142.940500248588</v>
       </c>
       <c r="F223" t="n">
         <v>1891</v>
@@ -9251,13 +9251,13 @@
         <v>98</v>
       </c>
       <c r="C224" t="n">
-        <v>51.513551764287</v>
+        <v>51.5086852785844</v>
       </c>
       <c r="D224" t="n">
-        <v>42.8068087187206</v>
+        <v>42.7151035572029</v>
       </c>
       <c r="E224" t="n">
-        <v>60.7228639123086</v>
+        <v>62.8451652913165</v>
       </c>
       <c r="F224" t="n">
         <v>1891</v>
@@ -9289,13 +9289,13 @@
         <v>99</v>
       </c>
       <c r="C225" t="n">
-        <v>66.0260634814898</v>
+        <v>68.5813870633168</v>
       </c>
       <c r="D225" t="n">
-        <v>56.3394532614998</v>
+        <v>55.6733781947097</v>
       </c>
       <c r="E225" t="n">
-        <v>77.1911228734467</v>
+        <v>82.0649935956553</v>
       </c>
       <c r="F225" t="n">
         <v>1891</v>
@@ -9327,13 +9327,13 @@
         <v>100</v>
       </c>
       <c r="C226" t="n">
-        <v>49.8746135539802</v>
+        <v>50.6633568286891</v>
       </c>
       <c r="D226" t="n">
-        <v>41.9813756704273</v>
+        <v>41.0864320633473</v>
       </c>
       <c r="E226" t="n">
-        <v>58.8637568457873</v>
+        <v>61.1848700906776</v>
       </c>
       <c r="F226" t="n">
         <v>1891</v>
@@ -9365,13 +9365,13 @@
         <v>101</v>
       </c>
       <c r="C227" t="n">
-        <v>58.3324693984471</v>
+        <v>58.7416646540399</v>
       </c>
       <c r="D227" t="n">
-        <v>49.3008998234692</v>
+        <v>47.4228122414017</v>
       </c>
       <c r="E227" t="n">
-        <v>68.6396734769208</v>
+        <v>70.9072091817565</v>
       </c>
       <c r="F227" t="n">
         <v>1891</v>
@@ -9403,13 +9403,13 @@
         <v>102</v>
       </c>
       <c r="C228" t="n">
-        <v>80.2897788221071</v>
+        <v>78.7396247076111</v>
       </c>
       <c r="D228" t="n">
-        <v>69.0263534845504</v>
+        <v>65.7513064695923</v>
       </c>
       <c r="E228" t="n">
-        <v>93.3158286143732</v>
+        <v>94.974298277812</v>
       </c>
       <c r="F228" t="n">
         <v>1891</v>
@@ -9441,13 +9441,13 @@
         <v>103</v>
       </c>
       <c r="C229" t="n">
-        <v>65.9287186047071</v>
+        <v>75.508673597269</v>
       </c>
       <c r="D229" t="n">
-        <v>55.5651844689095</v>
+        <v>61.9100937967012</v>
       </c>
       <c r="E229" t="n">
-        <v>76.7021206487675</v>
+        <v>94.7385515145411</v>
       </c>
       <c r="F229" t="n">
         <v>1891</v>
@@ -9479,13 +9479,13 @@
         <v>104</v>
       </c>
       <c r="C230" t="n">
-        <v>118.447023863134</v>
+        <v>118.046639135897</v>
       </c>
       <c r="D230" t="n">
-        <v>105.129763107922</v>
+        <v>98.4612397252772</v>
       </c>
       <c r="E230" t="n">
-        <v>134.011506918316</v>
+        <v>142.135119837297</v>
       </c>
       <c r="F230" t="n">
         <v>1891</v>
@@ -9517,13 +9517,13 @@
         <v>105</v>
       </c>
       <c r="C231" t="n">
-        <v>463.640547210871</v>
+        <v>450.48932088919</v>
       </c>
       <c r="D231" t="n">
-        <v>431.647390586291</v>
+        <v>386.478030126153</v>
       </c>
       <c r="E231" t="n">
-        <v>496.407988660855</v>
+        <v>529.384228359422</v>
       </c>
       <c r="F231" t="n">
         <v>1891</v>
@@ -9555,13 +9555,13 @@
         <v>106</v>
       </c>
       <c r="C232" t="n">
-        <v>50.5645188273322</v>
+        <v>49.3095060170376</v>
       </c>
       <c r="D232" t="n">
-        <v>42.336911291616</v>
+        <v>40.2945567965591</v>
       </c>
       <c r="E232" t="n">
-        <v>60.0788751631696</v>
+        <v>60.5581832891623</v>
       </c>
       <c r="F232" t="n">
         <v>1891</v>
@@ -9593,13 +9593,13 @@
         <v>107</v>
       </c>
       <c r="C233" t="n">
-        <v>93.9548699673321</v>
+        <v>93.9722092616863</v>
       </c>
       <c r="D233" t="n">
-        <v>82.3021010018753</v>
+        <v>78.8374201956999</v>
       </c>
       <c r="E233" t="n">
-        <v>107.4270817206</v>
+        <v>111.444812539018</v>
       </c>
       <c r="F233" t="n">
         <v>1891</v>
@@ -9631,13 +9631,13 @@
         <v>108</v>
       </c>
       <c r="C234" t="n">
-        <v>60.0290966931677</v>
+        <v>56.8642982612042</v>
       </c>
       <c r="D234" t="n">
-        <v>50.5345317250864</v>
+        <v>47.2364007279653</v>
       </c>
       <c r="E234" t="n">
-        <v>71.386545619982</v>
+        <v>69.7567618606902</v>
       </c>
       <c r="F234" t="n">
         <v>1891</v>
@@ -9669,13 +9669,13 @@
         <v>109</v>
       </c>
       <c r="C235" t="n">
-        <v>76.6921839053434</v>
+        <v>77.7616662585671</v>
       </c>
       <c r="D235" t="n">
-        <v>65.3990462413279</v>
+        <v>64.8600157688262</v>
       </c>
       <c r="E235" t="n">
-        <v>88.4386449938263</v>
+        <v>95.1292162689823</v>
       </c>
       <c r="F235" t="n">
         <v>1891</v>
@@ -9707,13 +9707,13 @@
         <v>110</v>
       </c>
       <c r="C236" t="n">
-        <v>126.670003346073</v>
+        <v>129.073469829818</v>
       </c>
       <c r="D236" t="n">
-        <v>112.319458123439</v>
+        <v>108.397019896129</v>
       </c>
       <c r="E236" t="n">
-        <v>143.670310710757</v>
+        <v>151.925346548368</v>
       </c>
       <c r="F236" t="n">
         <v>1891</v>
@@ -9745,13 +9745,13 @@
         <v>111</v>
       </c>
       <c r="C237" t="n">
-        <v>25.4837855354296</v>
+        <v>26.0847928904928</v>
       </c>
       <c r="D237" t="n">
-        <v>20.4797392582875</v>
+        <v>20.516920924811</v>
       </c>
       <c r="E237" t="n">
-        <v>31.968072676286</v>
+        <v>32.8850736318909</v>
       </c>
       <c r="F237" t="n">
         <v>1891</v>
@@ -9783,13 +9783,13 @@
         <v>112</v>
       </c>
       <c r="C238" t="n">
-        <v>89.9727310990377</v>
+        <v>89.290627343242</v>
       </c>
       <c r="D238" t="n">
-        <v>78.649924841108</v>
+        <v>74.962228039215</v>
       </c>
       <c r="E238" t="n">
-        <v>103.43112263862</v>
+        <v>107.715768119439</v>
       </c>
       <c r="F238" t="n">
         <v>1891</v>
@@ -9821,13 +9821,13 @@
         <v>113</v>
       </c>
       <c r="C239" t="n">
-        <v>78.4984842010254</v>
+        <v>76.448351501228</v>
       </c>
       <c r="D239" t="n">
-        <v>68.3184839032092</v>
+        <v>63.1942208623771</v>
       </c>
       <c r="E239" t="n">
-        <v>89.8011918166609</v>
+        <v>91.9677898662513</v>
       </c>
       <c r="F239" t="n">
         <v>1891</v>
@@ -9859,13 +9859,13 @@
         <v>114</v>
       </c>
       <c r="C240" t="n">
-        <v>118.042104237907</v>
+        <v>115.916178367349</v>
       </c>
       <c r="D240" t="n">
-        <v>103.29287470965</v>
+        <v>95.6620489005739</v>
       </c>
       <c r="E240" t="n">
-        <v>132.913598267181</v>
+        <v>137.20457550128</v>
       </c>
       <c r="F240" t="n">
         <v>1891</v>
@@ -9897,13 +9897,13 @@
         <v>115</v>
       </c>
       <c r="C241" t="n">
-        <v>45.8840031621209</v>
+        <v>46.2134765534748</v>
       </c>
       <c r="D241" t="n">
-        <v>38.9591511405416</v>
+        <v>37.5564524537454</v>
       </c>
       <c r="E241" t="n">
-        <v>54.5778367491319</v>
+        <v>56.5158527134107</v>
       </c>
       <c r="F241" t="n">
         <v>1891</v>
@@ -9935,13 +9935,13 @@
         <v>116</v>
       </c>
       <c r="C242" t="n">
-        <v>49.0614680242756</v>
+        <v>50.0858636351473</v>
       </c>
       <c r="D242" t="n">
-        <v>41.6843668351823</v>
+        <v>41.1665642861642</v>
       </c>
       <c r="E242" t="n">
-        <v>57.4035680396321</v>
+        <v>61.4660278063586</v>
       </c>
       <c r="F242" t="n">
         <v>1891</v>
@@ -9973,13 +9973,13 @@
         <v>117</v>
       </c>
       <c r="C243" t="n">
-        <v>25.2461597281253</v>
+        <v>25.1112201281806</v>
       </c>
       <c r="D243" t="n">
-        <v>19.7934539576567</v>
+        <v>20.0332842200352</v>
       </c>
       <c r="E243" t="n">
-        <v>31.3712893409233</v>
+        <v>31.5625754279158</v>
       </c>
       <c r="F243" t="n">
         <v>1891</v>
@@ -10011,13 +10011,13 @@
         <v>118</v>
       </c>
       <c r="C244" t="n">
-        <v>130.653534051621</v>
+        <v>129.842770742154</v>
       </c>
       <c r="D244" t="n">
-        <v>115.792752737161</v>
+        <v>109.096673394341</v>
       </c>
       <c r="E244" t="n">
-        <v>145.918618170009</v>
+        <v>156.162154985415</v>
       </c>
       <c r="F244" t="n">
         <v>1891</v>
@@ -10049,13 +10049,13 @@
         <v>119</v>
       </c>
       <c r="C245" t="n">
-        <v>58.826706090325</v>
+        <v>60.0172624416879</v>
       </c>
       <c r="D245" t="n">
-        <v>49.8075429100967</v>
+        <v>49.9398531829372</v>
       </c>
       <c r="E245" t="n">
-        <v>69.2587002310862</v>
+        <v>72.7086383954</v>
       </c>
       <c r="F245" t="n">
         <v>1891</v>
@@ -10087,13 +10087,13 @@
         <v>120</v>
       </c>
       <c r="C246" t="n">
-        <v>67.7271762252698</v>
+        <v>66.7446660839216</v>
       </c>
       <c r="D246" t="n">
-        <v>57.9508713999088</v>
+        <v>55.2122287644643</v>
       </c>
       <c r="E246" t="n">
-        <v>78.776242655497</v>
+        <v>81.169409945647</v>
       </c>
       <c r="F246" t="n">
         <v>1891</v>
@@ -10125,13 +10125,13 @@
         <v>121</v>
       </c>
       <c r="C247" t="n">
-        <v>136.925153095534</v>
+        <v>134.809266600851</v>
       </c>
       <c r="D247" t="n">
-        <v>121.779069094979</v>
+        <v>113.204060615111</v>
       </c>
       <c r="E247" t="n">
-        <v>153.784528637427</v>
+        <v>162.353644207807</v>
       </c>
       <c r="F247" t="n">
         <v>1891</v>
@@ -10163,13 +10163,13 @@
         <v>122</v>
       </c>
       <c r="C248" t="n">
-        <v>76.5870124465428</v>
+        <v>80.9572098167157</v>
       </c>
       <c r="D248" t="n">
-        <v>66.2630586535642</v>
+        <v>65.7183825599268</v>
       </c>
       <c r="E248" t="n">
-        <v>88.9545294285794</v>
+        <v>98.1041370032996</v>
       </c>
       <c r="F248" t="n">
         <v>1891</v>
@@ -10201,13 +10201,13 @@
         <v>123</v>
       </c>
       <c r="C249" t="n">
-        <v>172.913601308827</v>
+        <v>170.783552124199</v>
       </c>
       <c r="D249" t="n">
-        <v>153.888005142705</v>
+        <v>142.304859151325</v>
       </c>
       <c r="E249" t="n">
-        <v>192.43806805457</v>
+        <v>204.967226177899</v>
       </c>
       <c r="F249" t="n">
         <v>1891</v>
@@ -10239,13 +10239,13 @@
         <v>124</v>
       </c>
       <c r="C250" t="n">
-        <v>144.147747949789</v>
+        <v>139.271076907006</v>
       </c>
       <c r="D250" t="n">
-        <v>128.661142723375</v>
+        <v>118.005015756965</v>
       </c>
       <c r="E250" t="n">
-        <v>161.693767985848</v>
+        <v>163.970758626095</v>
       </c>
       <c r="F250" t="n">
         <v>1891</v>
@@ -10277,13 +10277,13 @@
         <v>125</v>
       </c>
       <c r="C251" t="n">
-        <v>311.592700821944</v>
+        <v>316.351816555837</v>
       </c>
       <c r="D251" t="n">
-        <v>285.222870953713</v>
+        <v>271.165932013961</v>
       </c>
       <c r="E251" t="n">
-        <v>340.328287851371</v>
+        <v>371.661048370561</v>
       </c>
       <c r="F251" t="n">
         <v>1891</v>
@@ -10315,13 +10315,13 @@
         <v>126</v>
       </c>
       <c r="C252" t="n">
-        <v>168.428403887051</v>
+        <v>171.838426026542</v>
       </c>
       <c r="D252" t="n">
-        <v>150.783478090578</v>
+        <v>145.947415162236</v>
       </c>
       <c r="E252" t="n">
-        <v>185.198184625026</v>
+        <v>205.932510592109</v>
       </c>
       <c r="F252" t="n">
         <v>1891</v>
@@ -10353,13 +10353,13 @@
         <v>127</v>
       </c>
       <c r="C253" t="n">
-        <v>63.1986100463328</v>
+        <v>63.3733140739487</v>
       </c>
       <c r="D253" t="n">
-        <v>53.3609690609608</v>
+        <v>52.6383491863609</v>
       </c>
       <c r="E253" t="n">
-        <v>73.1431456549659</v>
+        <v>76.8463405352833</v>
       </c>
       <c r="F253" t="n">
         <v>1891</v>
@@ -10391,13 +10391,13 @@
         <v>128</v>
       </c>
       <c r="C254" t="n">
-        <v>90.6193714122701</v>
+        <v>90.6913225637385</v>
       </c>
       <c r="D254" t="n">
-        <v>79.1921077580928</v>
+        <v>75.4868558141354</v>
       </c>
       <c r="E254" t="n">
-        <v>103.665455031615</v>
+        <v>109.126821527662</v>
       </c>
       <c r="F254" t="n">
         <v>1891</v>
@@ -10429,13 +10429,13 @@
         <v>130</v>
       </c>
       <c r="C255" t="n">
-        <v>50.4738496826257</v>
+        <v>52.308881290842</v>
       </c>
       <c r="D255" t="n">
-        <v>42.1920621586974</v>
+        <v>42.3240964147005</v>
       </c>
       <c r="E255" t="n">
-        <v>59.2025640036002</v>
+        <v>63.9635687126248</v>
       </c>
       <c r="F255" t="n">
         <v>1891</v>
